--- a/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9831031033925123</v>
+        <v>0.9831031033925131</v>
       </c>
       <c r="D2">
         <v>1.00455096761738</v>
       </c>
       <c r="E2">
-        <v>0.9732298432745476</v>
+        <v>0.9732298432745473</v>
       </c>
       <c r="F2">
-        <v>0.9909953787027278</v>
+        <v>0.9909953787027279</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,7 +445,7 @@
         <v>1.015947262263656</v>
       </c>
       <c r="L2">
-        <v>0.9850751717122525</v>
+        <v>0.9850751717122522</v>
       </c>
       <c r="M2">
         <v>1.002581604218464</v>
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9915719671920831</v>
+        <v>0.9915719671920833</v>
       </c>
       <c r="D3">
         <v>1.010828947096753</v>
@@ -468,7 +468,7 @@
         <v>0.9793772317525942</v>
       </c>
       <c r="F3">
-        <v>0.9987728580579727</v>
+        <v>0.9987728580579726</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.04140638642934</v>
       </c>
       <c r="J3">
-        <v>1.01229505584645</v>
+        <v>1.012295055846451</v>
       </c>
       <c r="K3">
         <v>1.021325119437992</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9968606011438009</v>
+        <v>0.9968606011438008</v>
       </c>
       <c r="D4">
-        <v>1.014751463581222</v>
+        <v>1.014751463581221</v>
       </c>
       <c r="E4">
-        <v>0.9832397871850264</v>
+        <v>0.9832397871850257</v>
       </c>
       <c r="F4">
-        <v>1.003644615845928</v>
+        <v>1.003644615845927</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,10 +518,10 @@
         <v>1.016344955419742</v>
       </c>
       <c r="K4">
-        <v>1.024675052752422</v>
+        <v>1.024675052752421</v>
       </c>
       <c r="L4">
-        <v>0.9935447926278166</v>
+        <v>0.993544792627816</v>
       </c>
       <c r="M4">
         <v>1.013699251693847</v>
@@ -535,10 +535,10 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.999041072058006</v>
+        <v>0.9990410720580065</v>
       </c>
       <c r="D5">
-        <v>1.016369026879393</v>
+        <v>1.016369026879392</v>
       </c>
       <c r="E5">
         <v>0.9848376454110672</v>
@@ -559,7 +559,7 @@
         <v>1.026054076164234</v>
       </c>
       <c r="L5">
-        <v>0.9948932857878655</v>
+        <v>0.9948932857878654</v>
       </c>
       <c r="M5">
         <v>1.015464325584916</v>
@@ -573,10 +573,10 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9994047483927171</v>
+        <v>0.9994047483927168</v>
       </c>
       <c r="D6">
-        <v>1.016638832325807</v>
+        <v>1.016638832325806</v>
       </c>
       <c r="E6">
         <v>0.9851044549873135</v>
@@ -591,13 +591,13 @@
         <v>1.044060324411331</v>
       </c>
       <c r="J6">
-        <v>1.018291507351788</v>
+        <v>1.018291507351787</v>
       </c>
       <c r="K6">
         <v>1.02628395211967</v>
       </c>
       <c r="L6">
-        <v>0.9951183581105872</v>
+        <v>0.995118358110587</v>
       </c>
       <c r="M6">
         <v>1.015758794442924</v>
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9968899015062214</v>
+        <v>0.9968899015062223</v>
       </c>
       <c r="D7">
-        <v>1.014773198673185</v>
+        <v>1.014773198673186</v>
       </c>
       <c r="E7">
         <v>0.9832612378134976</v>
@@ -632,7 +632,7 @@
         <v>1.01636737994412</v>
       </c>
       <c r="K7">
-        <v>1.024693592152887</v>
+        <v>1.024693592152888</v>
       </c>
       <c r="L7">
         <v>0.993562902260152</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9860066589261405</v>
+        <v>0.9860066589261417</v>
       </c>
       <c r="D8">
-        <v>1.006702842594506</v>
+        <v>1.006702842594507</v>
       </c>
       <c r="E8">
-        <v>0.975332263757098</v>
+        <v>0.9753322637570992</v>
       </c>
       <c r="F8">
-        <v>0.9936586184138586</v>
+        <v>0.9936586184138598</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039503885463779</v>
+        <v>1.03950388546378</v>
       </c>
       <c r="J8">
-        <v>1.008028714612498</v>
+        <v>1.008028714612499</v>
       </c>
       <c r="K8">
-        <v>1.017792778701575</v>
+        <v>1.017792778701577</v>
       </c>
       <c r="L8">
-        <v>0.986857078017485</v>
+        <v>0.9868570780174861</v>
       </c>
       <c r="M8">
-        <v>1.004925178486216</v>
+        <v>1.004925178486217</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.965214807156724</v>
+        <v>0.9652148071567245</v>
       </c>
       <c r="D9">
-        <v>0.991310037798951</v>
+        <v>0.9913100377989512</v>
       </c>
       <c r="E9">
-        <v>0.9603961706684456</v>
+        <v>0.9603961706684461</v>
       </c>
       <c r="F9">
-        <v>0.9746618624691347</v>
+        <v>0.9746618624691352</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.03229475451332</v>
       </c>
       <c r="J9">
-        <v>0.9920586850163302</v>
+        <v>0.9920586850163307</v>
       </c>
       <c r="K9">
         <v>1.004545694774526</v>
       </c>
       <c r="L9">
-        <v>0.9741662269083886</v>
+        <v>0.9741662269083889</v>
       </c>
       <c r="M9">
-        <v>0.9881798610494875</v>
+        <v>0.988179861049488</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9500257683542449</v>
+        <v>0.9500257683542445</v>
       </c>
       <c r="D10">
-        <v>0.9800960753824853</v>
+        <v>0.9800960753824848</v>
       </c>
       <c r="E10">
-        <v>0.9496593744884868</v>
+        <v>0.9496593744884866</v>
       </c>
       <c r="F10">
-        <v>0.9608923653330672</v>
+        <v>0.9608923653330664</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026949387884524</v>
       </c>
       <c r="J10">
-        <v>0.9803727082148228</v>
+        <v>0.9803727082148221</v>
       </c>
       <c r="K10">
-        <v>0.9948342474390701</v>
+        <v>0.9948342474390696</v>
       </c>
       <c r="L10">
-        <v>0.9650011882358269</v>
+        <v>0.9650011882358267</v>
       </c>
       <c r="M10">
-        <v>0.9760055406062739</v>
+        <v>0.9760055406062732</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -766,13 +766,13 @@
         <v>0.9430671574685621</v>
       </c>
       <c r="D11">
-        <v>0.9749696064333281</v>
+        <v>0.9749696064333278</v>
       </c>
       <c r="E11">
         <v>0.9447900225279841</v>
       </c>
       <c r="F11">
-        <v>0.9546146158275491</v>
+        <v>0.9546146158275494</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024483694417768</v>
       </c>
       <c r="J11">
-        <v>0.9750164056402205</v>
+        <v>0.9750164056402206</v>
       </c>
       <c r="K11">
-        <v>0.9903795173931847</v>
+        <v>0.9903795173931846</v>
       </c>
       <c r="L11">
         <v>0.9608340426650567</v>
       </c>
       <c r="M11">
-        <v>0.9704463774461585</v>
+        <v>0.9704463774461587</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -804,13 +804,13 @@
         <v>0.9404182113188702</v>
       </c>
       <c r="D12">
-        <v>0.9730201289170394</v>
+        <v>0.9730201289170397</v>
       </c>
       <c r="E12">
-        <v>0.9429446564878333</v>
+        <v>0.9429446564878339</v>
       </c>
       <c r="F12">
-        <v>0.9522299296685099</v>
+        <v>0.9522299296685103</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>0.972977235333737</v>
       </c>
       <c r="K12">
-        <v>0.9886831406926695</v>
+        <v>0.9886831406926696</v>
       </c>
       <c r="L12">
-        <v>0.9592531410275148</v>
+        <v>0.9592531410275154</v>
       </c>
       <c r="M12">
-        <v>0.968333356055715</v>
+        <v>0.9683333560557155</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9409894481343738</v>
+        <v>0.9409894481343721</v>
       </c>
       <c r="D13">
-        <v>0.9734404298088767</v>
+        <v>0.9734404298088756</v>
       </c>
       <c r="E13">
-        <v>0.9433422169830749</v>
+        <v>0.9433422169830745</v>
       </c>
       <c r="F13">
-        <v>0.9527439420972457</v>
+        <v>0.9527439420972451</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.023745760095165</v>
       </c>
       <c r="J13">
-        <v>0.973416980266161</v>
+        <v>0.9734169802661594</v>
       </c>
       <c r="K13">
-        <v>0.9890489809549281</v>
+        <v>0.9890489809549269</v>
       </c>
       <c r="L13">
-        <v>0.9595938017813809</v>
+        <v>0.9595938017813807</v>
       </c>
       <c r="M13">
-        <v>0.968788870454804</v>
+        <v>0.9687888704548033</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9428495485453912</v>
+        <v>0.9428495485453916</v>
       </c>
       <c r="D14">
-        <v>0.9748094150645897</v>
+        <v>0.9748094150645904</v>
       </c>
       <c r="E14">
-        <v>0.9446382548291908</v>
+        <v>0.9446382548291913</v>
       </c>
       <c r="F14">
-        <v>0.9544186098502062</v>
+        <v>0.9544186098502072</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.024406442125787</v>
       </c>
       <c r="J14">
-        <v>0.9748488916317658</v>
+        <v>0.9748488916317662</v>
       </c>
       <c r="K14">
-        <v>0.9902401716293787</v>
+        <v>0.9902401716293792</v>
       </c>
       <c r="L14">
-        <v>0.9607040591238069</v>
+        <v>0.9607040591238072</v>
       </c>
       <c r="M14">
-        <v>0.9702727268754241</v>
+        <v>0.9702727268754251</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9439868839956908</v>
+        <v>0.9439868839956919</v>
       </c>
       <c r="D15">
-        <v>0.9756467414106529</v>
+        <v>0.9756467414106538</v>
       </c>
       <c r="E15">
-        <v>0.9454318103809926</v>
+        <v>0.9454318103809932</v>
       </c>
       <c r="F15">
-        <v>0.9554432461467353</v>
+        <v>0.9554432461467363</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024810108901458</v>
+        <v>1.024810108901459</v>
       </c>
       <c r="J15">
-        <v>0.9757243995673599</v>
+        <v>0.9757243995673608</v>
       </c>
       <c r="K15">
-        <v>0.9909684416002447</v>
+        <v>0.9909684416002454</v>
       </c>
       <c r="L15">
-        <v>0.9613836431402493</v>
+        <v>0.96138364314025</v>
       </c>
       <c r="M15">
-        <v>0.971180445852013</v>
+        <v>0.9711804458520139</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.950478987228621</v>
+        <v>0.9504789872286203</v>
       </c>
       <c r="D16">
-        <v>0.980430222153323</v>
+        <v>0.9804302221533222</v>
       </c>
       <c r="E16">
-        <v>0.9499776037052071</v>
+        <v>0.949977603705207</v>
       </c>
       <c r="F16">
-        <v>0.9613019067492229</v>
+        <v>0.9613019067492226</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027109649954793</v>
+        <v>1.027109649954792</v>
       </c>
       <c r="J16">
-        <v>0.9807215315769856</v>
+        <v>0.9807215315769851</v>
       </c>
       <c r="K16">
-        <v>0.9951242921387657</v>
+        <v>0.9951242921387652</v>
       </c>
       <c r="L16">
         <v>0.9652733015369308</v>
       </c>
       <c r="M16">
-        <v>0.9763680249170945</v>
+        <v>0.9763680249170944</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,10 +997,10 @@
         <v>0.9833552674301369</v>
       </c>
       <c r="E17">
-        <v>0.9527677328125618</v>
+        <v>0.9527677328125619</v>
       </c>
       <c r="F17">
-        <v>0.9648888490149037</v>
+        <v>0.9648888490149039</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.028510074366639</v>
       </c>
       <c r="J17">
-        <v>0.9837734567432279</v>
+        <v>0.983773456743228</v>
       </c>
       <c r="K17">
-        <v>0.9976615719353561</v>
+        <v>0.9976615719353563</v>
       </c>
       <c r="L17">
-        <v>0.9676578989597161</v>
+        <v>0.9676578989597162</v>
       </c>
       <c r="M17">
-        <v>0.9795418455182966</v>
+        <v>0.9795418455182967</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.956721426131014</v>
+        <v>0.9567214261310139</v>
       </c>
       <c r="D18">
-        <v>0.9850356212603614</v>
+        <v>0.9850356212603611</v>
       </c>
       <c r="E18">
-        <v>0.9543741862638586</v>
+        <v>0.9543741862638584</v>
       </c>
       <c r="F18">
         <v>0.9669510256595512</v>
@@ -1047,16 +1047,16 @@
         <v>1.029312517498339</v>
       </c>
       <c r="J18">
-        <v>0.9855254002001931</v>
+        <v>0.9855254002001929</v>
       </c>
       <c r="K18">
-        <v>0.9991177575073736</v>
+        <v>0.9991177575073733</v>
       </c>
       <c r="L18">
-        <v>0.9690298704285946</v>
+        <v>0.9690298704285942</v>
       </c>
       <c r="M18">
-        <v>0.9813657012517126</v>
+        <v>0.9813657012517125</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9574917855012739</v>
+        <v>0.9574917855012746</v>
       </c>
       <c r="D19">
-        <v>0.9856043342119282</v>
+        <v>0.9856043342119289</v>
       </c>
       <c r="E19">
-        <v>0.9549184864827668</v>
+        <v>0.9549184864827673</v>
       </c>
       <c r="F19">
-        <v>0.9676492332090338</v>
+        <v>0.9676492332090346</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029583753226675</v>
       </c>
       <c r="J19">
-        <v>0.9861181270638439</v>
+        <v>0.9861181270638449</v>
       </c>
       <c r="K19">
-        <v>0.9996103641428881</v>
+        <v>0.9996103641428891</v>
       </c>
       <c r="L19">
-        <v>0.9694945565841995</v>
+        <v>0.9694945565842</v>
       </c>
       <c r="M19">
-        <v>0.9819830806742681</v>
+        <v>0.9819830806742688</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1111,10 +1111,10 @@
         <v>0.983044134694013</v>
       </c>
       <c r="E20">
-        <v>0.9524705727207349</v>
+        <v>0.952470572720735</v>
       </c>
       <c r="F20">
-        <v>0.9645071463988929</v>
+        <v>0.9645071463988926</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.02836132755251</v>
       </c>
       <c r="J20">
-        <v>0.9834489643419674</v>
+        <v>0.9834489643419675</v>
       </c>
       <c r="K20">
-        <v>0.9973918322215265</v>
+        <v>0.9973918322215266</v>
       </c>
       <c r="L20">
-        <v>0.9674040331282185</v>
+        <v>0.9674040331282187</v>
       </c>
       <c r="M20">
-        <v>0.9792041894811567</v>
+        <v>0.9792041894811565</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9423036289233037</v>
+        <v>0.9423036289233031</v>
       </c>
       <c r="D21">
-        <v>0.9744075737895664</v>
+        <v>0.974407573789566</v>
       </c>
       <c r="E21">
-        <v>0.9442576479245649</v>
+        <v>0.9442576479245643</v>
       </c>
       <c r="F21">
-        <v>0.9539269692408341</v>
+        <v>0.9539269692408338</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02421260116378</v>
       </c>
       <c r="J21">
-        <v>0.9744286439803724</v>
+        <v>0.9744286439803718</v>
       </c>
       <c r="K21">
-        <v>0.989890583774377</v>
+        <v>0.9898905837743763</v>
       </c>
       <c r="L21">
-        <v>0.9603780562660196</v>
+        <v>0.9603780562660194</v>
       </c>
       <c r="M21">
-        <v>0.969837139333676</v>
+        <v>0.9698371393336757</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9345594015958482</v>
+        <v>0.934559401595848</v>
       </c>
       <c r="D22">
-        <v>0.9687125725616703</v>
+        <v>0.9687125725616705</v>
       </c>
       <c r="E22">
-        <v>0.9388794686001105</v>
+        <v>0.9388794686001106</v>
       </c>
       <c r="F22">
-        <v>0.9469656050456434</v>
+        <v>0.9469656050456428</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021457537449195</v>
       </c>
       <c r="J22">
-        <v>0.9684670297954067</v>
+        <v>0.9684670297954066</v>
       </c>
       <c r="K22">
-        <v>0.984930407168058</v>
+        <v>0.9849304071680581</v>
       </c>
       <c r="L22">
-        <v>0.9557674159222561</v>
+        <v>0.9557674159222564</v>
       </c>
       <c r="M22">
-        <v>0.9636663493130903</v>
+        <v>0.9636663493130898</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9387030069452424</v>
+        <v>0.9387030069452421</v>
       </c>
       <c r="D23">
-        <v>0.9717584552596006</v>
+        <v>0.9717584552596001</v>
       </c>
       <c r="E23">
-        <v>0.9417522164013064</v>
+        <v>0.9417522164013059</v>
       </c>
       <c r="F23">
-        <v>0.9506873346494555</v>
+        <v>0.9506873346494552</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.022932847965126</v>
       </c>
       <c r="J23">
-        <v>0.9716568422944898</v>
+        <v>0.9716568422944895</v>
       </c>
       <c r="K23">
-        <v>0.9875845987048654</v>
+        <v>0.9875845987048649</v>
       </c>
       <c r="L23">
-        <v>0.9582311178637608</v>
+        <v>0.9582311178637603</v>
       </c>
       <c r="M23">
-        <v>0.966966128404675</v>
+        <v>0.9669661284046743</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9542136081035423</v>
+        <v>0.9542136081035442</v>
       </c>
       <c r="D24">
-        <v>0.9831848015006927</v>
+        <v>0.9831848015006946</v>
       </c>
       <c r="E24">
-        <v>0.9526049111509428</v>
+        <v>0.9526049111509436</v>
       </c>
       <c r="F24">
-        <v>0.9646797137690666</v>
+        <v>0.9646797137690681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028428584162615</v>
+        <v>1.028428584162616</v>
       </c>
       <c r="J24">
-        <v>0.9835956752396469</v>
+        <v>0.9835956752396487</v>
       </c>
       <c r="K24">
-        <v>0.9975137891255781</v>
+        <v>0.99751378912558</v>
       </c>
       <c r="L24">
-        <v>0.9675188024148724</v>
+        <v>0.9675188024148732</v>
       </c>
       <c r="M24">
-        <v>0.9793568459628843</v>
+        <v>0.979356845962886</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9708041547373584</v>
+        <v>0.9708041547373576</v>
       </c>
       <c r="D25">
-        <v>0.995443833565771</v>
+        <v>0.9954438335657707</v>
       </c>
       <c r="E25">
-        <v>0.9643842342393987</v>
+        <v>0.9643842342393983</v>
       </c>
       <c r="F25">
         <v>0.9797517689039742</v>
@@ -1313,16 +1313,16 @@
         <v>1.034246604150976</v>
       </c>
       <c r="J25">
-        <v>0.9963556705975094</v>
+        <v>0.9963556705975087</v>
       </c>
       <c r="K25">
-        <v>1.00811329231377</v>
+        <v>1.008113292313769</v>
       </c>
       <c r="L25">
-        <v>0.9775618031796641</v>
+        <v>0.9775618031796637</v>
       </c>
       <c r="M25">
-        <v>0.9926727614828743</v>
+        <v>0.9926727614828741</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9831031033925131</v>
+        <v>0.9831031033925123</v>
       </c>
       <c r="D2">
         <v>1.00455096761738</v>
       </c>
       <c r="E2">
-        <v>0.9732298432745473</v>
+        <v>0.9732298432745476</v>
       </c>
       <c r="F2">
-        <v>0.9909953787027279</v>
+        <v>0.9909953787027278</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,7 +445,7 @@
         <v>1.015947262263656</v>
       </c>
       <c r="L2">
-        <v>0.9850751717122522</v>
+        <v>0.9850751717122525</v>
       </c>
       <c r="M2">
         <v>1.002581604218464</v>
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9915719671920833</v>
+        <v>0.9915719671920831</v>
       </c>
       <c r="D3">
         <v>1.010828947096753</v>
@@ -468,7 +468,7 @@
         <v>0.9793772317525942</v>
       </c>
       <c r="F3">
-        <v>0.9987728580579726</v>
+        <v>0.9987728580579727</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.04140638642934</v>
       </c>
       <c r="J3">
-        <v>1.012295055846451</v>
+        <v>1.01229505584645</v>
       </c>
       <c r="K3">
         <v>1.021325119437992</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9968606011438008</v>
+        <v>0.9968606011438009</v>
       </c>
       <c r="D4">
-        <v>1.014751463581221</v>
+        <v>1.014751463581222</v>
       </c>
       <c r="E4">
-        <v>0.9832397871850257</v>
+        <v>0.9832397871850264</v>
       </c>
       <c r="F4">
-        <v>1.003644615845927</v>
+        <v>1.003644615845928</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,10 +518,10 @@
         <v>1.016344955419742</v>
       </c>
       <c r="K4">
-        <v>1.024675052752421</v>
+        <v>1.024675052752422</v>
       </c>
       <c r="L4">
-        <v>0.993544792627816</v>
+        <v>0.9935447926278166</v>
       </c>
       <c r="M4">
         <v>1.013699251693847</v>
@@ -535,10 +535,10 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9990410720580065</v>
+        <v>0.999041072058006</v>
       </c>
       <c r="D5">
-        <v>1.016369026879392</v>
+        <v>1.016369026879393</v>
       </c>
       <c r="E5">
         <v>0.9848376454110672</v>
@@ -559,7 +559,7 @@
         <v>1.026054076164234</v>
       </c>
       <c r="L5">
-        <v>0.9948932857878654</v>
+        <v>0.9948932857878655</v>
       </c>
       <c r="M5">
         <v>1.015464325584916</v>
@@ -573,10 +573,10 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9994047483927168</v>
+        <v>0.9994047483927171</v>
       </c>
       <c r="D6">
-        <v>1.016638832325806</v>
+        <v>1.016638832325807</v>
       </c>
       <c r="E6">
         <v>0.9851044549873135</v>
@@ -591,13 +591,13 @@
         <v>1.044060324411331</v>
       </c>
       <c r="J6">
-        <v>1.018291507351787</v>
+        <v>1.018291507351788</v>
       </c>
       <c r="K6">
         <v>1.02628395211967</v>
       </c>
       <c r="L6">
-        <v>0.995118358110587</v>
+        <v>0.9951183581105872</v>
       </c>
       <c r="M6">
         <v>1.015758794442924</v>
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9968899015062223</v>
+        <v>0.9968899015062214</v>
       </c>
       <c r="D7">
-        <v>1.014773198673186</v>
+        <v>1.014773198673185</v>
       </c>
       <c r="E7">
         <v>0.9832612378134976</v>
@@ -632,7 +632,7 @@
         <v>1.01636737994412</v>
       </c>
       <c r="K7">
-        <v>1.024693592152888</v>
+        <v>1.024693592152887</v>
       </c>
       <c r="L7">
         <v>0.993562902260152</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9860066589261417</v>
+        <v>0.9860066589261405</v>
       </c>
       <c r="D8">
-        <v>1.006702842594507</v>
+        <v>1.006702842594506</v>
       </c>
       <c r="E8">
-        <v>0.9753322637570992</v>
+        <v>0.975332263757098</v>
       </c>
       <c r="F8">
-        <v>0.9936586184138598</v>
+        <v>0.9936586184138586</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03950388546378</v>
+        <v>1.039503885463779</v>
       </c>
       <c r="J8">
-        <v>1.008028714612499</v>
+        <v>1.008028714612498</v>
       </c>
       <c r="K8">
-        <v>1.017792778701577</v>
+        <v>1.017792778701575</v>
       </c>
       <c r="L8">
-        <v>0.9868570780174861</v>
+        <v>0.986857078017485</v>
       </c>
       <c r="M8">
-        <v>1.004925178486217</v>
+        <v>1.004925178486216</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9652148071567245</v>
+        <v>0.965214807156724</v>
       </c>
       <c r="D9">
-        <v>0.9913100377989512</v>
+        <v>0.991310037798951</v>
       </c>
       <c r="E9">
-        <v>0.9603961706684461</v>
+        <v>0.9603961706684456</v>
       </c>
       <c r="F9">
-        <v>0.9746618624691352</v>
+        <v>0.9746618624691347</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.03229475451332</v>
       </c>
       <c r="J9">
-        <v>0.9920586850163307</v>
+        <v>0.9920586850163302</v>
       </c>
       <c r="K9">
         <v>1.004545694774526</v>
       </c>
       <c r="L9">
-        <v>0.9741662269083889</v>
+        <v>0.9741662269083886</v>
       </c>
       <c r="M9">
-        <v>0.988179861049488</v>
+        <v>0.9881798610494875</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9500257683542445</v>
+        <v>0.9500257683542449</v>
       </c>
       <c r="D10">
-        <v>0.9800960753824848</v>
+        <v>0.9800960753824853</v>
       </c>
       <c r="E10">
-        <v>0.9496593744884866</v>
+        <v>0.9496593744884868</v>
       </c>
       <c r="F10">
-        <v>0.9608923653330664</v>
+        <v>0.9608923653330672</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026949387884524</v>
       </c>
       <c r="J10">
-        <v>0.9803727082148221</v>
+        <v>0.9803727082148228</v>
       </c>
       <c r="K10">
-        <v>0.9948342474390696</v>
+        <v>0.9948342474390701</v>
       </c>
       <c r="L10">
-        <v>0.9650011882358267</v>
+        <v>0.9650011882358269</v>
       </c>
       <c r="M10">
-        <v>0.9760055406062732</v>
+        <v>0.9760055406062739</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -766,13 +766,13 @@
         <v>0.9430671574685621</v>
       </c>
       <c r="D11">
-        <v>0.9749696064333278</v>
+        <v>0.9749696064333281</v>
       </c>
       <c r="E11">
         <v>0.9447900225279841</v>
       </c>
       <c r="F11">
-        <v>0.9546146158275494</v>
+        <v>0.9546146158275491</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024483694417768</v>
       </c>
       <c r="J11">
-        <v>0.9750164056402206</v>
+        <v>0.9750164056402205</v>
       </c>
       <c r="K11">
-        <v>0.9903795173931846</v>
+        <v>0.9903795173931847</v>
       </c>
       <c r="L11">
         <v>0.9608340426650567</v>
       </c>
       <c r="M11">
-        <v>0.9704463774461587</v>
+        <v>0.9704463774461585</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -804,13 +804,13 @@
         <v>0.9404182113188702</v>
       </c>
       <c r="D12">
-        <v>0.9730201289170397</v>
+        <v>0.9730201289170394</v>
       </c>
       <c r="E12">
-        <v>0.9429446564878339</v>
+        <v>0.9429446564878333</v>
       </c>
       <c r="F12">
-        <v>0.9522299296685103</v>
+        <v>0.9522299296685099</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>0.972977235333737</v>
       </c>
       <c r="K12">
-        <v>0.9886831406926696</v>
+        <v>0.9886831406926695</v>
       </c>
       <c r="L12">
-        <v>0.9592531410275154</v>
+        <v>0.9592531410275148</v>
       </c>
       <c r="M12">
-        <v>0.9683333560557155</v>
+        <v>0.968333356055715</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9409894481343721</v>
+        <v>0.9409894481343738</v>
       </c>
       <c r="D13">
-        <v>0.9734404298088756</v>
+        <v>0.9734404298088767</v>
       </c>
       <c r="E13">
-        <v>0.9433422169830745</v>
+        <v>0.9433422169830749</v>
       </c>
       <c r="F13">
-        <v>0.9527439420972451</v>
+        <v>0.9527439420972457</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.023745760095165</v>
       </c>
       <c r="J13">
-        <v>0.9734169802661594</v>
+        <v>0.973416980266161</v>
       </c>
       <c r="K13">
-        <v>0.9890489809549269</v>
+        <v>0.9890489809549281</v>
       </c>
       <c r="L13">
-        <v>0.9595938017813807</v>
+        <v>0.9595938017813809</v>
       </c>
       <c r="M13">
-        <v>0.9687888704548033</v>
+        <v>0.968788870454804</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9428495485453916</v>
+        <v>0.9428495485453912</v>
       </c>
       <c r="D14">
-        <v>0.9748094150645904</v>
+        <v>0.9748094150645897</v>
       </c>
       <c r="E14">
-        <v>0.9446382548291913</v>
+        <v>0.9446382548291908</v>
       </c>
       <c r="F14">
-        <v>0.9544186098502072</v>
+        <v>0.9544186098502062</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.024406442125787</v>
       </c>
       <c r="J14">
-        <v>0.9748488916317662</v>
+        <v>0.9748488916317658</v>
       </c>
       <c r="K14">
-        <v>0.9902401716293792</v>
+        <v>0.9902401716293787</v>
       </c>
       <c r="L14">
-        <v>0.9607040591238072</v>
+        <v>0.9607040591238069</v>
       </c>
       <c r="M14">
-        <v>0.9702727268754251</v>
+        <v>0.9702727268754241</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9439868839956919</v>
+        <v>0.9439868839956908</v>
       </c>
       <c r="D15">
-        <v>0.9756467414106538</v>
+        <v>0.9756467414106529</v>
       </c>
       <c r="E15">
-        <v>0.9454318103809932</v>
+        <v>0.9454318103809926</v>
       </c>
       <c r="F15">
-        <v>0.9554432461467363</v>
+        <v>0.9554432461467353</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024810108901459</v>
+        <v>1.024810108901458</v>
       </c>
       <c r="J15">
-        <v>0.9757243995673608</v>
+        <v>0.9757243995673599</v>
       </c>
       <c r="K15">
-        <v>0.9909684416002454</v>
+        <v>0.9909684416002447</v>
       </c>
       <c r="L15">
-        <v>0.96138364314025</v>
+        <v>0.9613836431402493</v>
       </c>
       <c r="M15">
-        <v>0.9711804458520139</v>
+        <v>0.971180445852013</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9504789872286203</v>
+        <v>0.950478987228621</v>
       </c>
       <c r="D16">
-        <v>0.9804302221533222</v>
+        <v>0.980430222153323</v>
       </c>
       <c r="E16">
-        <v>0.949977603705207</v>
+        <v>0.9499776037052071</v>
       </c>
       <c r="F16">
-        <v>0.9613019067492226</v>
+        <v>0.9613019067492229</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027109649954792</v>
+        <v>1.027109649954793</v>
       </c>
       <c r="J16">
-        <v>0.9807215315769851</v>
+        <v>0.9807215315769856</v>
       </c>
       <c r="K16">
-        <v>0.9951242921387652</v>
+        <v>0.9951242921387657</v>
       </c>
       <c r="L16">
         <v>0.9652733015369308</v>
       </c>
       <c r="M16">
-        <v>0.9763680249170944</v>
+        <v>0.9763680249170945</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,10 +997,10 @@
         <v>0.9833552674301369</v>
       </c>
       <c r="E17">
-        <v>0.9527677328125619</v>
+        <v>0.9527677328125618</v>
       </c>
       <c r="F17">
-        <v>0.9648888490149039</v>
+        <v>0.9648888490149037</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.028510074366639</v>
       </c>
       <c r="J17">
-        <v>0.983773456743228</v>
+        <v>0.9837734567432279</v>
       </c>
       <c r="K17">
-        <v>0.9976615719353563</v>
+        <v>0.9976615719353561</v>
       </c>
       <c r="L17">
-        <v>0.9676578989597162</v>
+        <v>0.9676578989597161</v>
       </c>
       <c r="M17">
-        <v>0.9795418455182967</v>
+        <v>0.9795418455182966</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9567214261310139</v>
+        <v>0.956721426131014</v>
       </c>
       <c r="D18">
-        <v>0.9850356212603611</v>
+        <v>0.9850356212603614</v>
       </c>
       <c r="E18">
-        <v>0.9543741862638584</v>
+        <v>0.9543741862638586</v>
       </c>
       <c r="F18">
         <v>0.9669510256595512</v>
@@ -1047,16 +1047,16 @@
         <v>1.029312517498339</v>
       </c>
       <c r="J18">
-        <v>0.9855254002001929</v>
+        <v>0.9855254002001931</v>
       </c>
       <c r="K18">
-        <v>0.9991177575073733</v>
+        <v>0.9991177575073736</v>
       </c>
       <c r="L18">
-        <v>0.9690298704285942</v>
+        <v>0.9690298704285946</v>
       </c>
       <c r="M18">
-        <v>0.9813657012517125</v>
+        <v>0.9813657012517126</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9574917855012746</v>
+        <v>0.9574917855012739</v>
       </c>
       <c r="D19">
-        <v>0.9856043342119289</v>
+        <v>0.9856043342119282</v>
       </c>
       <c r="E19">
-        <v>0.9549184864827673</v>
+        <v>0.9549184864827668</v>
       </c>
       <c r="F19">
-        <v>0.9676492332090346</v>
+        <v>0.9676492332090338</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029583753226675</v>
       </c>
       <c r="J19">
-        <v>0.9861181270638449</v>
+        <v>0.9861181270638439</v>
       </c>
       <c r="K19">
-        <v>0.9996103641428891</v>
+        <v>0.9996103641428881</v>
       </c>
       <c r="L19">
-        <v>0.9694945565842</v>
+        <v>0.9694945565841995</v>
       </c>
       <c r="M19">
-        <v>0.9819830806742688</v>
+        <v>0.9819830806742681</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1111,10 +1111,10 @@
         <v>0.983044134694013</v>
       </c>
       <c r="E20">
-        <v>0.952470572720735</v>
+        <v>0.9524705727207349</v>
       </c>
       <c r="F20">
-        <v>0.9645071463988926</v>
+        <v>0.9645071463988929</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.02836132755251</v>
       </c>
       <c r="J20">
-        <v>0.9834489643419675</v>
+        <v>0.9834489643419674</v>
       </c>
       <c r="K20">
-        <v>0.9973918322215266</v>
+        <v>0.9973918322215265</v>
       </c>
       <c r="L20">
-        <v>0.9674040331282187</v>
+        <v>0.9674040331282185</v>
       </c>
       <c r="M20">
-        <v>0.9792041894811565</v>
+        <v>0.9792041894811567</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9423036289233031</v>
+        <v>0.9423036289233037</v>
       </c>
       <c r="D21">
-        <v>0.974407573789566</v>
+        <v>0.9744075737895664</v>
       </c>
       <c r="E21">
-        <v>0.9442576479245643</v>
+        <v>0.9442576479245649</v>
       </c>
       <c r="F21">
-        <v>0.9539269692408338</v>
+        <v>0.9539269692408341</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02421260116378</v>
       </c>
       <c r="J21">
-        <v>0.9744286439803718</v>
+        <v>0.9744286439803724</v>
       </c>
       <c r="K21">
-        <v>0.9898905837743763</v>
+        <v>0.989890583774377</v>
       </c>
       <c r="L21">
-        <v>0.9603780562660194</v>
+        <v>0.9603780562660196</v>
       </c>
       <c r="M21">
-        <v>0.9698371393336757</v>
+        <v>0.969837139333676</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.934559401595848</v>
+        <v>0.9345594015958482</v>
       </c>
       <c r="D22">
-        <v>0.9687125725616705</v>
+        <v>0.9687125725616703</v>
       </c>
       <c r="E22">
-        <v>0.9388794686001106</v>
+        <v>0.9388794686001105</v>
       </c>
       <c r="F22">
-        <v>0.9469656050456428</v>
+        <v>0.9469656050456434</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021457537449195</v>
       </c>
       <c r="J22">
-        <v>0.9684670297954066</v>
+        <v>0.9684670297954067</v>
       </c>
       <c r="K22">
-        <v>0.9849304071680581</v>
+        <v>0.984930407168058</v>
       </c>
       <c r="L22">
-        <v>0.9557674159222564</v>
+        <v>0.9557674159222561</v>
       </c>
       <c r="M22">
-        <v>0.9636663493130898</v>
+        <v>0.9636663493130903</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9387030069452421</v>
+        <v>0.9387030069452424</v>
       </c>
       <c r="D23">
-        <v>0.9717584552596001</v>
+        <v>0.9717584552596006</v>
       </c>
       <c r="E23">
-        <v>0.9417522164013059</v>
+        <v>0.9417522164013064</v>
       </c>
       <c r="F23">
-        <v>0.9506873346494552</v>
+        <v>0.9506873346494555</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.022932847965126</v>
       </c>
       <c r="J23">
-        <v>0.9716568422944895</v>
+        <v>0.9716568422944898</v>
       </c>
       <c r="K23">
-        <v>0.9875845987048649</v>
+        <v>0.9875845987048654</v>
       </c>
       <c r="L23">
-        <v>0.9582311178637603</v>
+        <v>0.9582311178637608</v>
       </c>
       <c r="M23">
-        <v>0.9669661284046743</v>
+        <v>0.966966128404675</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9542136081035442</v>
+        <v>0.9542136081035423</v>
       </c>
       <c r="D24">
-        <v>0.9831848015006946</v>
+        <v>0.9831848015006927</v>
       </c>
       <c r="E24">
-        <v>0.9526049111509436</v>
+        <v>0.9526049111509428</v>
       </c>
       <c r="F24">
-        <v>0.9646797137690681</v>
+        <v>0.9646797137690666</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028428584162616</v>
+        <v>1.028428584162615</v>
       </c>
       <c r="J24">
-        <v>0.9835956752396487</v>
+        <v>0.9835956752396469</v>
       </c>
       <c r="K24">
-        <v>0.99751378912558</v>
+        <v>0.9975137891255781</v>
       </c>
       <c r="L24">
-        <v>0.9675188024148732</v>
+        <v>0.9675188024148724</v>
       </c>
       <c r="M24">
-        <v>0.979356845962886</v>
+        <v>0.9793568459628843</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9708041547373576</v>
+        <v>0.9708041547373584</v>
       </c>
       <c r="D25">
-        <v>0.9954438335657707</v>
+        <v>0.995443833565771</v>
       </c>
       <c r="E25">
-        <v>0.9643842342393983</v>
+        <v>0.9643842342393987</v>
       </c>
       <c r="F25">
         <v>0.9797517689039742</v>
@@ -1313,16 +1313,16 @@
         <v>1.034246604150976</v>
       </c>
       <c r="J25">
-        <v>0.9963556705975087</v>
+        <v>0.9963556705975094</v>
       </c>
       <c r="K25">
-        <v>1.008113292313769</v>
+        <v>1.00811329231377</v>
       </c>
       <c r="L25">
-        <v>0.9775618031796637</v>
+        <v>0.9775618031796641</v>
       </c>
       <c r="M25">
-        <v>0.9926727614828741</v>
+        <v>0.9926727614828743</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831031033925123</v>
+        <v>0.9859516051977353</v>
       </c>
       <c r="D2">
-        <v>1.00455096761738</v>
+        <v>1.006702877259886</v>
       </c>
       <c r="E2">
-        <v>0.9732298432745476</v>
+        <v>0.9740479926157414</v>
       </c>
       <c r="F2">
-        <v>0.9909953787027278</v>
+        <v>0.9928353429807131</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038506265154032</v>
+        <v>1.039637911327744</v>
       </c>
       <c r="J2">
-        <v>1.005801216670306</v>
+        <v>1.00856077703664</v>
       </c>
       <c r="K2">
-        <v>1.015947262263656</v>
+        <v>1.018069613570862</v>
       </c>
       <c r="L2">
-        <v>0.9850751717122525</v>
+        <v>0.9858811247159563</v>
       </c>
       <c r="M2">
-        <v>1.002581604218464</v>
+        <v>1.004395403615346</v>
+      </c>
+      <c r="N2">
+        <v>1.00999304902357</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9915719671920831</v>
+        <v>0.9943983567147032</v>
       </c>
       <c r="D3">
-        <v>1.010828947096753</v>
+        <v>1.012967613738825</v>
       </c>
       <c r="E3">
-        <v>0.9793772317525942</v>
+        <v>0.9801840823766733</v>
       </c>
       <c r="F3">
-        <v>0.9987728580579727</v>
+        <v>1.000595204223222</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04140638642934</v>
+        <v>1.042532133238573</v>
       </c>
       <c r="J3">
-        <v>1.01229505584645</v>
+        <v>1.015042901818522</v>
       </c>
       <c r="K3">
-        <v>1.021325119437992</v>
+        <v>1.023437217253072</v>
       </c>
       <c r="L3">
-        <v>0.9902809672077487</v>
+        <v>0.9910769516222774</v>
       </c>
       <c r="M3">
-        <v>1.009421464511764</v>
+        <v>1.011220474961003</v>
+      </c>
+      <c r="N3">
+        <v>1.016484379166153</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9968606011438009</v>
+        <v>0.9996742474319263</v>
       </c>
       <c r="D4">
-        <v>1.014751463581222</v>
+        <v>1.016882570711895</v>
       </c>
       <c r="E4">
-        <v>0.9832397871850264</v>
+        <v>0.9840400422588248</v>
       </c>
       <c r="F4">
-        <v>1.003644615845928</v>
+        <v>1.005456728239123</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043201542287373</v>
+        <v>1.044324000276275</v>
       </c>
       <c r="J4">
-        <v>1.016344955419742</v>
+        <v>1.019086289665611</v>
       </c>
       <c r="K4">
-        <v>1.024675052752422</v>
+        <v>1.026781420103835</v>
       </c>
       <c r="L4">
-        <v>0.9935447926278166</v>
+        <v>0.9943349845651019</v>
       </c>
       <c r="M4">
-        <v>1.013699251693847</v>
+        <v>1.015489738482879</v>
+      </c>
+      <c r="N4">
+        <v>1.020533509087767</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.999041072058006</v>
+        <v>1.001849697572693</v>
       </c>
       <c r="D5">
-        <v>1.016369026879393</v>
+        <v>1.018497173798523</v>
       </c>
       <c r="E5">
-        <v>0.9848376454110672</v>
+        <v>0.9856352825372152</v>
       </c>
       <c r="F5">
-        <v>1.00565659416777</v>
+        <v>1.007464655809604</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043937764063978</v>
+        <v>1.045058953874531</v>
       </c>
       <c r="J5">
-        <v>1.018013326571921</v>
+        <v>1.020752152924541</v>
       </c>
       <c r="K5">
-        <v>1.026054076164234</v>
+        <v>1.028158229412637</v>
       </c>
       <c r="L5">
-        <v>0.9948932857878655</v>
+        <v>0.9956811850145399</v>
       </c>
       <c r="M5">
-        <v>1.015464325584916</v>
+        <v>1.017251454671533</v>
+      </c>
+      <c r="N5">
+        <v>1.022201738063602</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9994047483927171</v>
+        <v>1.002212549621943</v>
       </c>
       <c r="D6">
-        <v>1.016638832325807</v>
+        <v>1.018766494353856</v>
       </c>
       <c r="E6">
-        <v>0.9851044549873135</v>
+        <v>0.9859016611912672</v>
       </c>
       <c r="F6">
-        <v>1.00599236187881</v>
+        <v>1.007799757399206</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044060324411331</v>
+        <v>1.045181307681575</v>
       </c>
       <c r="J6">
-        <v>1.018291507351788</v>
+        <v>1.021029925395834</v>
       </c>
       <c r="K6">
-        <v>1.02628395211967</v>
+        <v>1.028387744477525</v>
       </c>
       <c r="L6">
-        <v>0.9951183581105872</v>
+        <v>0.9959058803357653</v>
       </c>
       <c r="M6">
-        <v>1.015758794442924</v>
+        <v>1.017545372335313</v>
+      </c>
+      <c r="N6">
+        <v>1.022479905003666</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9968899015062214</v>
+        <v>0.9997034794306742</v>
       </c>
       <c r="D7">
-        <v>1.014773198673185</v>
+        <v>1.016904265422535</v>
       </c>
       <c r="E7">
-        <v>0.9832612378134976</v>
+        <v>0.9840614573178471</v>
       </c>
       <c r="F7">
-        <v>1.003671638897037</v>
+        <v>1.005483696209217</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043211450973721</v>
+        <v>1.044333891582128</v>
       </c>
       <c r="J7">
-        <v>1.01636737994412</v>
+        <v>1.019108679808727</v>
       </c>
       <c r="K7">
-        <v>1.024693592152887</v>
+        <v>1.026799929179257</v>
       </c>
       <c r="L7">
-        <v>0.993562902260152</v>
+        <v>0.9943530630207178</v>
       </c>
       <c r="M7">
-        <v>1.013722964899865</v>
+        <v>1.015513405966505</v>
+      </c>
+      <c r="N7">
+        <v>1.020555931027455</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9860066589261405</v>
+        <v>0.988847338932058</v>
       </c>
       <c r="D8">
-        <v>1.006702842594506</v>
+        <v>1.008850052118362</v>
       </c>
       <c r="E8">
-        <v>0.975332263757098</v>
+        <v>0.9761464358157594</v>
       </c>
       <c r="F8">
-        <v>0.9936586184138586</v>
+        <v>0.9954923690743982</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039503885463779</v>
+        <v>1.040633420639379</v>
       </c>
       <c r="J8">
-        <v>1.008028714612498</v>
+        <v>1.010784077846816</v>
       </c>
       <c r="K8">
-        <v>1.017792778701575</v>
+        <v>1.019911463575825</v>
       </c>
       <c r="L8">
-        <v>0.986857078017485</v>
+        <v>0.9876595161071953</v>
       </c>
       <c r="M8">
-        <v>1.004925178486216</v>
+        <v>1.006733747285069</v>
+      </c>
+      <c r="N8">
+        <v>1.012219507175913</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.965214807156724</v>
+        <v>0.9681173075401192</v>
       </c>
       <c r="D9">
-        <v>0.991310037798951</v>
+        <v>0.9934947249228755</v>
       </c>
       <c r="E9">
-        <v>0.9603961706684456</v>
+        <v>0.9612412986897183</v>
       </c>
       <c r="F9">
-        <v>0.9746618624691347</v>
+        <v>0.9765442753190174</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03229475451332</v>
+        <v>1.033441496402348</v>
       </c>
       <c r="J9">
-        <v>0.9920586850163302</v>
+        <v>0.9948484363678075</v>
       </c>
       <c r="K9">
-        <v>1.004545694774526</v>
+        <v>1.006694234849027</v>
       </c>
       <c r="L9">
-        <v>0.9741662269083886</v>
+        <v>0.9749961516386318</v>
       </c>
       <c r="M9">
-        <v>0.9881798610494875</v>
+        <v>0.9900297252117602</v>
+      </c>
+      <c r="N9">
+        <v>0.9962612352581605</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9500257683542449</v>
+        <v>0.952982595762395</v>
       </c>
       <c r="D10">
-        <v>0.9800960753824853</v>
+        <v>0.9823141049371695</v>
       </c>
       <c r="E10">
-        <v>0.9496593744884868</v>
+        <v>0.9505309760105104</v>
       </c>
       <c r="F10">
-        <v>0.9608923653330672</v>
+        <v>0.962816871639002</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026949387884524</v>
+        <v>1.028111922512286</v>
       </c>
       <c r="J10">
-        <v>0.9803727082148228</v>
+        <v>0.9831943584948312</v>
       </c>
       <c r="K10">
-        <v>0.9948342474390701</v>
+        <v>0.9970101985404207</v>
       </c>
       <c r="L10">
-        <v>0.9650011882358269</v>
+        <v>0.9658547937334336</v>
       </c>
       <c r="M10">
-        <v>0.9760055406062739</v>
+        <v>0.9778915789474996</v>
+      </c>
+      <c r="N10">
+        <v>0.984590607257863</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9430671574685621</v>
+        <v>0.9460517360239549</v>
       </c>
       <c r="D11">
-        <v>0.9749696064333281</v>
+        <v>0.9772047518468867</v>
       </c>
       <c r="E11">
-        <v>0.9447900225279841</v>
+        <v>0.9456749406293871</v>
       </c>
       <c r="F11">
-        <v>0.9546146158275491</v>
+        <v>0.9565604387081973</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024483694417768</v>
+        <v>1.025654445824014</v>
       </c>
       <c r="J11">
-        <v>0.9750164056402205</v>
+        <v>0.9778547663620818</v>
       </c>
       <c r="K11">
-        <v>0.9903795173931847</v>
+        <v>0.9925697487503332</v>
       </c>
       <c r="L11">
-        <v>0.9608340426650567</v>
+        <v>0.9616996021294838</v>
       </c>
       <c r="M11">
-        <v>0.9704463774461585</v>
+        <v>0.9723508460341508</v>
+      </c>
+      <c r="N11">
+        <v>0.9792434322918256</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9404182113188702</v>
+        <v>0.9434138585882065</v>
       </c>
       <c r="D12">
-        <v>0.9730201289170394</v>
+        <v>0.9752621124734304</v>
       </c>
       <c r="E12">
-        <v>0.9429446564878333</v>
+        <v>0.9438348517042735</v>
       </c>
       <c r="F12">
-        <v>0.9522299296685099</v>
+        <v>0.9541842243417639</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023542745986202</v>
+        <v>1.024716796281187</v>
       </c>
       <c r="J12">
-        <v>0.972977235333737</v>
+        <v>0.9758223251608619</v>
       </c>
       <c r="K12">
-        <v>0.9886831406926695</v>
+        <v>0.9908791095323454</v>
       </c>
       <c r="L12">
-        <v>0.9592531410275148</v>
+        <v>0.9601234440588974</v>
       </c>
       <c r="M12">
-        <v>0.968333356055715</v>
+        <v>0.970245166400072</v>
+      </c>
+      <c r="N12">
+        <v>0.9772081047909753</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9409894481343738</v>
+        <v>0.9439826843376671</v>
       </c>
       <c r="D13">
-        <v>0.9734404298088767</v>
+        <v>0.9756809233438353</v>
       </c>
       <c r="E13">
-        <v>0.9433422169830749</v>
+        <v>0.9442312642931958</v>
       </c>
       <c r="F13">
-        <v>0.9527439420972457</v>
+        <v>0.9546963927937018</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023745760095165</v>
+        <v>1.024919090850834</v>
       </c>
       <c r="J13">
-        <v>0.973416980266161</v>
+        <v>0.976260601416531</v>
       </c>
       <c r="K13">
-        <v>0.9890489809549281</v>
+        <v>0.9912436981479544</v>
       </c>
       <c r="L13">
-        <v>0.9595938017813809</v>
+        <v>0.960463072676535</v>
       </c>
       <c r="M13">
-        <v>0.968788870454804</v>
+        <v>0.9706990820155755</v>
+      </c>
+      <c r="N13">
+        <v>0.9776470034491982</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9428495485453912</v>
+        <v>0.9458350256857949</v>
       </c>
       <c r="D14">
-        <v>0.9748094150645897</v>
+        <v>0.9770451153957528</v>
       </c>
       <c r="E14">
-        <v>0.9446382548291908</v>
+        <v>0.9455236020431904</v>
       </c>
       <c r="F14">
-        <v>0.9544186098502062</v>
+        <v>0.956365121114677</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024406442125787</v>
+        <v>1.025577460918762</v>
       </c>
       <c r="J14">
-        <v>0.9748488916317658</v>
+        <v>0.9776877973523601</v>
       </c>
       <c r="K14">
-        <v>0.9902401716293787</v>
+        <v>0.9924308679379075</v>
       </c>
       <c r="L14">
-        <v>0.9607040591238069</v>
+        <v>0.9615700041858389</v>
       </c>
       <c r="M14">
-        <v>0.9702727268754241</v>
+        <v>0.9721777916820563</v>
+      </c>
+      <c r="N14">
+        <v>0.9790762261669582</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9439868839956908</v>
+        <v>0.9469676856173362</v>
       </c>
       <c r="D15">
-        <v>0.9756467414106529</v>
+        <v>0.9778795548388741</v>
       </c>
       <c r="E15">
-        <v>0.9454318103809926</v>
+        <v>0.9463149234517214</v>
       </c>
       <c r="F15">
-        <v>0.9554432461467353</v>
+        <v>0.9573861743840226</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024810108901458</v>
+        <v>1.025979737280514</v>
       </c>
       <c r="J15">
-        <v>0.9757243995673599</v>
+        <v>0.9785604721070688</v>
       </c>
       <c r="K15">
-        <v>0.9909684416002447</v>
+        <v>0.9931567203321989</v>
       </c>
       <c r="L15">
-        <v>0.9613836431402493</v>
+        <v>0.9622475808737341</v>
       </c>
       <c r="M15">
-        <v>0.971180445852013</v>
+        <v>0.9730824080321078</v>
+      </c>
+      <c r="N15">
+        <v>0.979950140219916</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.950478987228621</v>
+        <v>0.953434071977295</v>
       </c>
       <c r="D16">
-        <v>0.980430222153323</v>
+        <v>0.9826471784586803</v>
       </c>
       <c r="E16">
-        <v>0.9499776037052071</v>
+        <v>0.9508483646830769</v>
       </c>
       <c r="F16">
-        <v>0.9613019067492229</v>
+        <v>0.9632250706100175</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027109649954793</v>
+        <v>1.028271671476133</v>
       </c>
       <c r="J16">
-        <v>0.9807215315769856</v>
+        <v>0.9835421408190432</v>
       </c>
       <c r="K16">
-        <v>0.9951242921387657</v>
+        <v>0.9972993519687217</v>
       </c>
       <c r="L16">
-        <v>0.9652733015369308</v>
+        <v>0.9661261533410659</v>
       </c>
       <c r="M16">
-        <v>0.9763680249170945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9782529048094482</v>
+      </c>
+      <c r="N16">
+        <v>0.9849388834728666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9544446348693127</v>
+        <v>0.9573847992774885</v>
       </c>
       <c r="D17">
-        <v>0.9833552674301369</v>
+        <v>0.9855630435157529</v>
       </c>
       <c r="E17">
-        <v>0.9527677328125618</v>
+        <v>0.9536312750373904</v>
       </c>
       <c r="F17">
-        <v>0.9648888490149037</v>
+        <v>0.966800499230954</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028510074366639</v>
+        <v>1.029667718475311</v>
       </c>
       <c r="J17">
-        <v>0.9837734567432279</v>
+        <v>0.9865851969427916</v>
       </c>
       <c r="K17">
-        <v>0.9976615719353561</v>
+        <v>0.9998290302636719</v>
       </c>
       <c r="L17">
-        <v>0.9676578989597161</v>
+        <v>0.9685042824038307</v>
       </c>
       <c r="M17">
-        <v>0.9795418455182966</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9814168016831929</v>
+      </c>
+      <c r="N17">
+        <v>0.987986261085354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.956721426131014</v>
+        <v>0.9596532856950963</v>
       </c>
       <c r="D18">
-        <v>0.9850356212603614</v>
+        <v>0.9872382949327861</v>
       </c>
       <c r="E18">
-        <v>0.9543741862638586</v>
+        <v>0.9552336926211815</v>
       </c>
       <c r="F18">
-        <v>0.9669510256595512</v>
+        <v>0.9688562512153742</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029312517498339</v>
+        <v>1.030467738196675</v>
       </c>
       <c r="J18">
-        <v>0.9855254002001931</v>
+        <v>0.9883322399959074</v>
       </c>
       <c r="K18">
-        <v>0.9991177575073736</v>
+        <v>1.001281009041227</v>
       </c>
       <c r="L18">
-        <v>0.9690298704285946</v>
+        <v>0.9698726412448443</v>
       </c>
       <c r="M18">
-        <v>0.9813657012517126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9832351296761929</v>
+      </c>
+      <c r="N18">
+        <v>0.9897357851399941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9574917855012739</v>
+        <v>0.9604208774944908</v>
       </c>
       <c r="D19">
-        <v>0.9856043342119282</v>
+        <v>0.9878053088056433</v>
       </c>
       <c r="E19">
-        <v>0.9549184864827668</v>
+        <v>0.9557766449544921</v>
       </c>
       <c r="F19">
-        <v>0.9676492332090338</v>
+        <v>0.9695523151072445</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029583753226675</v>
+        <v>1.030738168577622</v>
       </c>
       <c r="J19">
-        <v>0.9861181270638439</v>
+        <v>0.9889233399156202</v>
       </c>
       <c r="K19">
-        <v>0.9996103641428881</v>
+        <v>1.001772217896814</v>
       </c>
       <c r="L19">
-        <v>0.9694945565841995</v>
+        <v>0.9703361214942667</v>
       </c>
       <c r="M19">
-        <v>0.9819830806742681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9838506663519609</v>
+      </c>
+      <c r="N19">
+        <v>0.9903277244893928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9540229594451717</v>
+        <v>0.9569646826936703</v>
       </c>
       <c r="D20">
-        <v>0.983044134694013</v>
+        <v>0.9852528691339424</v>
       </c>
       <c r="E20">
-        <v>0.9524705727207349</v>
+        <v>0.9533348710398492</v>
       </c>
       <c r="F20">
-        <v>0.9645071463988929</v>
+        <v>0.9664200012355545</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02836132755251</v>
+        <v>1.029519427627716</v>
       </c>
       <c r="J20">
-        <v>0.9834489643419674</v>
+        <v>0.9862616273341059</v>
       </c>
       <c r="K20">
-        <v>0.9973918322215265</v>
+        <v>0.9995600821784373</v>
       </c>
       <c r="L20">
-        <v>0.9674040331282185</v>
+        <v>0.9682510936797929</v>
       </c>
       <c r="M20">
-        <v>0.9792041894811567</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.981080182894048</v>
+      </c>
+      <c r="N20">
+        <v>0.9876622319707102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9423036289233037</v>
+        <v>0.9452913687469046</v>
       </c>
       <c r="D21">
-        <v>0.9744075737895664</v>
+        <v>0.9766446716079498</v>
       </c>
       <c r="E21">
-        <v>0.9442576479245649</v>
+        <v>0.945144075110198</v>
       </c>
       <c r="F21">
-        <v>0.9539269692408341</v>
+        <v>0.9558752133983869</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02421260116378</v>
+        <v>1.025384293589682</v>
       </c>
       <c r="J21">
-        <v>0.9744286439803724</v>
+        <v>0.9772689230577892</v>
       </c>
       <c r="K21">
-        <v>0.989890583774377</v>
+        <v>0.9920824515162208</v>
       </c>
       <c r="L21">
-        <v>0.9603780562660196</v>
+        <v>0.9612449718856753</v>
       </c>
       <c r="M21">
-        <v>0.969837139333676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9717437052951776</v>
+      </c>
+      <c r="N21">
+        <v>0.9786567570228435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9345594015958482</v>
+        <v>0.9375805626705889</v>
       </c>
       <c r="D22">
-        <v>0.9687125725616703</v>
+        <v>0.9709703382838095</v>
       </c>
       <c r="E22">
-        <v>0.9388794686001105</v>
+        <v>0.9397817587879475</v>
       </c>
       <c r="F22">
-        <v>0.9469656050456434</v>
+        <v>0.9489393666220757</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021457537449195</v>
+        <v>1.022639231574658</v>
       </c>
       <c r="J22">
-        <v>0.9684670297954067</v>
+        <v>0.9713277535116055</v>
       </c>
       <c r="K22">
-        <v>0.984930407168058</v>
+        <v>0.9871396799428961</v>
       </c>
       <c r="L22">
-        <v>0.9557674159222561</v>
+        <v>0.9566486033146395</v>
       </c>
       <c r="M22">
-        <v>0.9636663493130903</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9655950626036055</v>
+      </c>
+      <c r="N22">
+        <v>0.9727071503344425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9387030069452424</v>
+        <v>0.9417059744598859</v>
       </c>
       <c r="D23">
-        <v>0.9717584552596006</v>
+        <v>0.9740049642442721</v>
       </c>
       <c r="E23">
-        <v>0.9417522164013064</v>
+        <v>0.9426458914608337</v>
       </c>
       <c r="F23">
-        <v>0.9506873346494555</v>
+        <v>0.952647223127007</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022932847965126</v>
+        <v>1.024109085957321</v>
       </c>
       <c r="J23">
-        <v>0.9716568422944898</v>
+        <v>0.9745064007211849</v>
       </c>
       <c r="K23">
-        <v>0.9875845987048654</v>
+        <v>0.9897843738006818</v>
       </c>
       <c r="L23">
-        <v>0.9582311178637608</v>
+        <v>0.9591045507390239</v>
       </c>
       <c r="M23">
-        <v>0.966966128404675</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9688827912867221</v>
+      </c>
+      <c r="N23">
+        <v>0.9758903115876555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9542136081035423</v>
+        <v>0.9571546257584728</v>
       </c>
       <c r="D24">
-        <v>0.9831848015006927</v>
+        <v>0.9853931021276442</v>
       </c>
       <c r="E24">
-        <v>0.9526049111509428</v>
+        <v>0.9534688672874714</v>
       </c>
       <c r="F24">
-        <v>0.9646797137690666</v>
+        <v>0.966592023396541</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028428584162615</v>
+        <v>1.029586477807721</v>
       </c>
       <c r="J24">
-        <v>0.9835956752396469</v>
+        <v>0.9864079204248649</v>
       </c>
       <c r="K24">
-        <v>0.9975137891255781</v>
+        <v>0.9996816806831009</v>
       </c>
       <c r="L24">
-        <v>0.9675188024148724</v>
+        <v>0.9683655565189506</v>
       </c>
       <c r="M24">
-        <v>0.9793568459628843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9812323698884989</v>
+      </c>
+      <c r="N24">
+        <v>0.9878087328144382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9708041547373584</v>
+        <v>0.9736886763830768</v>
       </c>
       <c r="D25">
-        <v>0.995443833565771</v>
+        <v>0.9976175551265778</v>
       </c>
       <c r="E25">
-        <v>0.9643842342393987</v>
+        <v>0.9652204636790666</v>
       </c>
       <c r="F25">
-        <v>0.9797517689039742</v>
+        <v>0.9816201263353955</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034246604150976</v>
+        <v>1.03538823557935</v>
       </c>
       <c r="J25">
-        <v>0.9963556705975094</v>
+        <v>0.9991351666977554</v>
       </c>
       <c r="K25">
-        <v>1.00811329231377</v>
+        <v>1.010252968411156</v>
       </c>
       <c r="L25">
-        <v>0.9775618031796641</v>
+        <v>0.9783837995556558</v>
       </c>
       <c r="M25">
-        <v>0.9926727614828743</v>
+        <v>0.9945106285280642</v>
+      </c>
+      <c r="N25">
+        <v>1.000554053236872</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9859516051977353</v>
+        <v>1.018556343604975</v>
       </c>
       <c r="D2">
-        <v>1.006702877259886</v>
+        <v>1.037204608203068</v>
       </c>
       <c r="E2">
-        <v>0.9740479926157414</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9928353429807131</v>
+        <v>1.037937788289086</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039637911327744</v>
+        <v>1.055374569952509</v>
       </c>
       <c r="J2">
-        <v>1.00856077703664</v>
+        <v>1.040195857281466</v>
       </c>
       <c r="K2">
-        <v>1.018069613570862</v>
+        <v>1.048168859840577</v>
       </c>
       <c r="L2">
-        <v>0.9858811247159563</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.004395403615346</v>
+        <v>1.048892728906858</v>
       </c>
       <c r="N2">
-        <v>1.00999304902357</v>
+        <v>1.041673054710938</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9943983567147032</v>
+        <v>1.026029002735265</v>
       </c>
       <c r="D3">
-        <v>1.012967613738825</v>
+        <v>1.043245928982676</v>
       </c>
       <c r="E3">
-        <v>0.9801840823766733</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.000595204223222</v>
+        <v>1.044824202516521</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042532133238573</v>
+        <v>1.058178298373778</v>
       </c>
       <c r="J3">
-        <v>1.015042901818522</v>
+        <v>1.045834392939732</v>
       </c>
       <c r="K3">
-        <v>1.023437217253072</v>
+        <v>1.053353828962453</v>
       </c>
       <c r="L3">
-        <v>0.9910769516222774</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.011220474961003</v>
+        <v>1.054913958457691</v>
       </c>
       <c r="N3">
-        <v>1.016484379166153</v>
+        <v>1.047319597736588</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9996742474319263</v>
+        <v>1.030714269468475</v>
       </c>
       <c r="D4">
-        <v>1.016882570711895</v>
+        <v>1.047035774087437</v>
       </c>
       <c r="E4">
-        <v>0.9840400422588248</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.005456728239123</v>
+        <v>1.049148286199876</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044324000276275</v>
+        <v>1.059921434463254</v>
       </c>
       <c r="J4">
-        <v>1.019086289665611</v>
+        <v>1.049363646912648</v>
       </c>
       <c r="K4">
-        <v>1.026781420103835</v>
+        <v>1.056597820809588</v>
       </c>
       <c r="L4">
-        <v>0.9943349845651019</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.015489738482879</v>
+        <v>1.058687626271269</v>
       </c>
       <c r="N4">
-        <v>1.020533509087767</v>
+        <v>1.050853863654957</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001849697572693</v>
+        <v>1.032650059217933</v>
       </c>
       <c r="D5">
-        <v>1.018497173798523</v>
+        <v>1.04860199183193</v>
       </c>
       <c r="E5">
-        <v>0.9856352825372152</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.007464655809604</v>
+        <v>1.05093629379111</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045058953874531</v>
+        <v>1.060638033104202</v>
       </c>
       <c r="J5">
-        <v>1.020752152924541</v>
+        <v>1.050820307841698</v>
       </c>
       <c r="K5">
-        <v>1.028158229412637</v>
+        <v>1.057936392721741</v>
       </c>
       <c r="L5">
-        <v>0.9956811850145399</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.017251454671533</v>
+        <v>1.060246321379495</v>
       </c>
       <c r="N5">
-        <v>1.022201738063602</v>
+        <v>1.052312593209608</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002212549621943</v>
+        <v>1.032973154772632</v>
       </c>
       <c r="D6">
-        <v>1.018766494353856</v>
+        <v>1.04886342343139</v>
       </c>
       <c r="E6">
-        <v>0.9859016611912672</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.007799757399206</v>
+        <v>1.051234806248744</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045181307681575</v>
+        <v>1.060757424185438</v>
       </c>
       <c r="J6">
-        <v>1.021029925395834</v>
+        <v>1.051063343728738</v>
       </c>
       <c r="K6">
-        <v>1.028387744477525</v>
+        <v>1.058159704877541</v>
       </c>
       <c r="L6">
-        <v>0.9959058803357653</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.017545372335313</v>
+        <v>1.060506448633249</v>
       </c>
       <c r="N6">
-        <v>1.022479905003666</v>
+        <v>1.052555974235484</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9997034794306742</v>
+        <v>1.030740266227721</v>
       </c>
       <c r="D7">
-        <v>1.016904265422535</v>
+        <v>1.047056806264657</v>
       </c>
       <c r="E7">
-        <v>0.9840614573178471</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.005483696209217</v>
+        <v>1.049172292696536</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044333891582128</v>
+        <v>1.059931072402214</v>
       </c>
       <c r="J7">
-        <v>1.019108679808727</v>
+        <v>1.049383215220989</v>
       </c>
       <c r="K7">
-        <v>1.026799929179257</v>
+        <v>1.05661580416421</v>
       </c>
       <c r="L7">
-        <v>0.9943530630207178</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.015513405966505</v>
+        <v>1.058708560717947</v>
       </c>
       <c r="N7">
-        <v>1.020555931027455</v>
+        <v>1.05087345975254</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.988847338932058</v>
+        <v>1.02111410700548</v>
       </c>
       <c r="D8">
-        <v>1.008850052118362</v>
+        <v>1.039271962227456</v>
       </c>
       <c r="E8">
-        <v>0.9761464358157594</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9954923690743982</v>
+        <v>1.040293485966346</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040633420639379</v>
+        <v>1.056337319391796</v>
       </c>
       <c r="J8">
-        <v>1.010784077846816</v>
+        <v>1.042127072346296</v>
       </c>
       <c r="K8">
-        <v>1.019911463575825</v>
+        <v>1.04994500220295</v>
       </c>
       <c r="L8">
-        <v>0.9876595161071953</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.006733747285069</v>
+        <v>1.050953975459931</v>
       </c>
       <c r="N8">
-        <v>1.012219507175913</v>
+        <v>1.043607012322673</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9681173075401192</v>
+        <v>1.002901149702974</v>
       </c>
       <c r="D9">
-        <v>0.9934947249228755</v>
+        <v>1.024564247935317</v>
       </c>
       <c r="E9">
-        <v>0.9612412986897183</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9765442753190174</v>
+        <v>1.023551079618479</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033441496402348</v>
+        <v>1.049420578789415</v>
       </c>
       <c r="J9">
-        <v>0.9948484363678075</v>
+        <v>1.028351875207335</v>
       </c>
       <c r="K9">
-        <v>1.006694234849027</v>
+        <v>1.037270973779173</v>
       </c>
       <c r="L9">
-        <v>0.9749961516386318</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9900297252117602</v>
+        <v>1.036273273066199</v>
       </c>
       <c r="N9">
-        <v>0.9962612352581605</v>
+        <v>1.029812252823739</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.952982595762395</v>
+        <v>0.9897578878242743</v>
       </c>
       <c r="D10">
-        <v>0.9823141049371695</v>
+        <v>1.013973159621718</v>
       </c>
       <c r="E10">
-        <v>0.9505309760105104</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.962816871639002</v>
+        <v>1.011514896450087</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028111922512286</v>
+        <v>1.04435369450586</v>
       </c>
       <c r="J10">
-        <v>0.9831943584948312</v>
+        <v>1.018383843602267</v>
       </c>
       <c r="K10">
-        <v>0.9970101985404207</v>
+        <v>1.028094625735037</v>
       </c>
       <c r="L10">
-        <v>0.9658547937334336</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9778915789474996</v>
+        <v>1.025679312377223</v>
       </c>
       <c r="N10">
-        <v>0.984590607257863</v>
+        <v>1.019830065470442</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9460517360239549</v>
+        <v>0.9837866665051679</v>
       </c>
       <c r="D11">
-        <v>0.9772047518468867</v>
+        <v>1.009168888081132</v>
       </c>
       <c r="E11">
-        <v>0.9456749406293871</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9565604387081973</v>
+        <v>1.00605943647299</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025654445824014</v>
+        <v>1.042034937752453</v>
       </c>
       <c r="J11">
-        <v>0.9778547663620818</v>
+        <v>1.013849847822144</v>
       </c>
       <c r="K11">
-        <v>0.9925697487503332</v>
+        <v>1.0239199395785</v>
       </c>
       <c r="L11">
-        <v>0.9616996021294838</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9723508460341508</v>
+        <v>1.020867978308823</v>
       </c>
       <c r="N11">
-        <v>0.9792434322918256</v>
+        <v>1.015289630896254</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9434138585882065</v>
+        <v>0.9815223654556195</v>
       </c>
       <c r="D12">
-        <v>0.9752621124734304</v>
+        <v>1.007348417205534</v>
       </c>
       <c r="E12">
-        <v>0.9438348517042735</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9541842243417639</v>
+        <v>1.003992820326885</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024716796281187</v>
+        <v>1.041153249284637</v>
       </c>
       <c r="J12">
-        <v>0.9758223251608619</v>
+        <v>1.012129854393226</v>
       </c>
       <c r="K12">
-        <v>0.9908791095323454</v>
+        <v>1.022336174414165</v>
       </c>
       <c r="L12">
-        <v>0.9601234440588974</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.970245166400072</v>
+        <v>1.019043921922886</v>
       </c>
       <c r="N12">
-        <v>0.9772081047909753</v>
+        <v>1.013567194879381</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9439826843376671</v>
+        <v>0.9820102366477972</v>
       </c>
       <c r="D13">
-        <v>0.9756809233438353</v>
+        <v>1.007740596761642</v>
       </c>
       <c r="E13">
-        <v>0.9442312642931958</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9546963927937018</v>
+        <v>1.004437999639282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024919090850834</v>
+        <v>1.041343326641655</v>
       </c>
       <c r="J13">
-        <v>0.976260601416531</v>
+        <v>1.012500477182759</v>
       </c>
       <c r="K13">
-        <v>0.9912436981479544</v>
+        <v>1.022677445641914</v>
       </c>
       <c r="L13">
-        <v>0.960463072676535</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9706990820155755</v>
+        <v>1.019436915687652</v>
       </c>
       <c r="N13">
-        <v>0.9776470034491982</v>
+        <v>1.013938343995787</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9458350256857949</v>
+        <v>0.983600470330841</v>
       </c>
       <c r="D14">
-        <v>0.9770451153957528</v>
+        <v>1.00901916060344</v>
       </c>
       <c r="E14">
-        <v>0.9455236020431904</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.956365121114677</v>
+        <v>1.005889452325522</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025577460918762</v>
+        <v>1.041962483630372</v>
       </c>
       <c r="J14">
-        <v>0.9776877973523601</v>
+        <v>1.013708424046995</v>
       </c>
       <c r="K14">
-        <v>0.9924308679379075</v>
+        <v>1.023789718280226</v>
       </c>
       <c r="L14">
-        <v>0.9615700041858389</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9721777916820563</v>
+        <v>1.020717974637872</v>
       </c>
       <c r="N14">
-        <v>0.9790762261669582</v>
+        <v>1.015148006283123</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9469676856173362</v>
+        <v>0.9845739904049864</v>
       </c>
       <c r="D15">
-        <v>0.9778795548388741</v>
+        <v>1.009802060253968</v>
       </c>
       <c r="E15">
-        <v>0.9463149234517214</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9573861743840226</v>
+        <v>1.006778295111315</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025979737280514</v>
+        <v>1.04234121022787</v>
       </c>
       <c r="J15">
-        <v>0.9785604721070688</v>
+        <v>1.01444782582675</v>
       </c>
       <c r="K15">
-        <v>0.9931567203321989</v>
+        <v>1.024470547583164</v>
       </c>
       <c r="L15">
-        <v>0.9622475808737341</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9730824080321078</v>
+        <v>1.021502281243686</v>
       </c>
       <c r="N15">
-        <v>0.979950140219916</v>
+        <v>1.015888458098216</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.953434071977295</v>
+        <v>0.9901479279651857</v>
       </c>
       <c r="D16">
-        <v>0.9826471784586803</v>
+        <v>1.014287144850794</v>
       </c>
       <c r="E16">
-        <v>0.9508483646830769</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9632250706100175</v>
+        <v>1.011871526401314</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028271671476133</v>
+        <v>1.044504817998445</v>
       </c>
       <c r="J16">
-        <v>0.9835421408190432</v>
+        <v>1.018679902838559</v>
       </c>
       <c r="K16">
-        <v>0.9972993519687217</v>
+        <v>1.028367209927225</v>
       </c>
       <c r="L16">
-        <v>0.9661261533410659</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9782529048094482</v>
+        <v>1.025993636525639</v>
       </c>
       <c r="N16">
-        <v>0.9849388834728666</v>
+        <v>1.020126545144808</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9573847992774885</v>
+        <v>0.9935665062513964</v>
       </c>
       <c r="D17">
-        <v>0.9855630435157529</v>
+        <v>1.017039986546215</v>
       </c>
       <c r="E17">
-        <v>0.9536312750373904</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.966800499230954</v>
+        <v>1.014998735492431</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029667718475311</v>
+        <v>1.045827490259947</v>
       </c>
       <c r="J17">
-        <v>0.9865851969427916</v>
+        <v>1.021274179001785</v>
       </c>
       <c r="K17">
-        <v>0.9998290302636719</v>
+        <v>1.030755697030698</v>
       </c>
       <c r="L17">
-        <v>0.9685042824038307</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9814168016831929</v>
+        <v>1.028748795841594</v>
       </c>
       <c r="N17">
-        <v>0.987986261085354</v>
+        <v>1.022724505477753</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9596532856950963</v>
+        <v>0.9955337951607506</v>
       </c>
       <c r="D18">
-        <v>0.9872382949327861</v>
+        <v>1.018624848415865</v>
       </c>
       <c r="E18">
-        <v>0.9552336926211815</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9688562512153742</v>
+        <v>1.01679953653366</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030467738196675</v>
+        <v>1.046587067873887</v>
       </c>
       <c r="J18">
-        <v>0.9883322399959074</v>
+        <v>1.022766598667629</v>
       </c>
       <c r="K18">
-        <v>1.001281009041227</v>
+        <v>1.032129654688441</v>
       </c>
       <c r="L18">
-        <v>0.9698726412448443</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9832351296761929</v>
+        <v>1.030334454728111</v>
       </c>
       <c r="N18">
-        <v>0.9897357851399941</v>
+        <v>1.024219044550706</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9604208774944908</v>
+        <v>0.9962001787516175</v>
       </c>
       <c r="D19">
-        <v>0.9878053088056433</v>
+        <v>1.019161802291408</v>
       </c>
       <c r="E19">
-        <v>0.9557766449544921</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9695523151072445</v>
+        <v>1.017409721513293</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030738168577622</v>
+        <v>1.046844089912428</v>
       </c>
       <c r="J19">
-        <v>0.9889233399156202</v>
+        <v>1.023272039627085</v>
       </c>
       <c r="K19">
-        <v>1.001772217896814</v>
+        <v>1.032594961675383</v>
       </c>
       <c r="L19">
-        <v>0.9703361214942667</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9838506663519609</v>
+        <v>1.030871588715222</v>
       </c>
       <c r="N19">
-        <v>0.9903277244893928</v>
+        <v>1.024725203294299</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9569646826936703</v>
+        <v>0.9932025166665308</v>
       </c>
       <c r="D20">
-        <v>0.9852528691339424</v>
+        <v>1.016746808083063</v>
       </c>
       <c r="E20">
-        <v>0.9533348710398492</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9664200012355545</v>
+        <v>1.014665644563468</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029519427627716</v>
+        <v>1.045686823682177</v>
       </c>
       <c r="J20">
-        <v>0.9862616273341059</v>
+        <v>1.020998008231431</v>
       </c>
       <c r="K20">
-        <v>0.9995600821784373</v>
+        <v>1.030501441025574</v>
       </c>
       <c r="L20">
-        <v>0.9682510936797929</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.981080182894048</v>
+        <v>1.02845542669904</v>
       </c>
       <c r="N20">
-        <v>0.9876622319707102</v>
+        <v>1.022447942513228</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9452913687469046</v>
+        <v>0.983133501984425</v>
       </c>
       <c r="D21">
-        <v>0.9766446716079498</v>
+        <v>1.008643675404493</v>
       </c>
       <c r="E21">
-        <v>0.945144075110198</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9558752133983869</v>
+        <v>1.005463177257724</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025384293589682</v>
+        <v>1.04178073488488</v>
       </c>
       <c r="J21">
-        <v>0.9772689230577892</v>
+        <v>1.013353731357236</v>
       </c>
       <c r="K21">
-        <v>0.9920824515162208</v>
+        <v>1.023463120450548</v>
       </c>
       <c r="L21">
-        <v>0.9612449718856753</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9717437052951776</v>
+        <v>1.02034178202833</v>
       </c>
       <c r="N21">
-        <v>0.9786567570228435</v>
+        <v>1.014792809889061</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9375805626705889</v>
+        <v>0.9765321349228875</v>
       </c>
       <c r="D22">
-        <v>0.9709703382838095</v>
+        <v>1.003339013157758</v>
       </c>
       <c r="E22">
-        <v>0.9397817587879475</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9489393666220757</v>
+        <v>0.9994423777687305</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022639231574658</v>
+        <v>1.039205803067045</v>
       </c>
       <c r="J22">
-        <v>0.9713277535116055</v>
+        <v>1.008338065959446</v>
       </c>
       <c r="K22">
-        <v>0.9871396799428961</v>
+        <v>1.018844612485509</v>
       </c>
       <c r="L22">
-        <v>0.9566486033146395</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9655950626036055</v>
+        <v>1.015024889363937</v>
       </c>
       <c r="N22">
-        <v>0.9727071503344425</v>
+        <v>1.009770021671101</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9417059744598859</v>
+        <v>0.9800588723380038</v>
       </c>
       <c r="D23">
-        <v>0.9740049642442721</v>
+        <v>1.006172185680665</v>
       </c>
       <c r="E23">
-        <v>0.9426458914608337</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.952647223127007</v>
+        <v>1.00265771668142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024109085957321</v>
+        <v>1.040582719973759</v>
       </c>
       <c r="J23">
-        <v>0.9745064007211849</v>
+        <v>1.011017985409785</v>
       </c>
       <c r="K23">
-        <v>0.9897843738006818</v>
+        <v>1.021312352206779</v>
       </c>
       <c r="L23">
-        <v>0.9591045507390239</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9688827912867221</v>
+        <v>1.017865111437226</v>
       </c>
       <c r="N23">
-        <v>0.9758903115876555</v>
+        <v>1.012453746914451</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9571546257584728</v>
+        <v>0.9933670701200544</v>
       </c>
       <c r="D24">
-        <v>0.9853931021276442</v>
+        <v>1.016879346929841</v>
       </c>
       <c r="E24">
-        <v>0.9534688672874714</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.966592023396541</v>
+        <v>1.014816225590725</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029586477807721</v>
+        <v>1.045750421551226</v>
       </c>
       <c r="J24">
-        <v>0.9864079204248649</v>
+        <v>1.021122861891293</v>
       </c>
       <c r="K24">
-        <v>0.9996816806831009</v>
+        <v>1.030616387511739</v>
       </c>
       <c r="L24">
-        <v>0.9683655565189506</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9812323698884989</v>
+        <v>1.028588053413588</v>
       </c>
       <c r="N24">
-        <v>0.9878087328144382</v>
+        <v>1.022572973479607</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9736886763830768</v>
+        <v>1.007773172592172</v>
       </c>
       <c r="D25">
-        <v>0.9976175551265778</v>
+        <v>1.028495378274744</v>
       </c>
       <c r="E25">
-        <v>0.9652204636790666</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9816201263353955</v>
+        <v>1.028022502648752</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03538823557935</v>
+        <v>1.051283972268487</v>
       </c>
       <c r="J25">
-        <v>0.9991351666977554</v>
+        <v>1.032041740652755</v>
       </c>
       <c r="K25">
-        <v>1.010252968411156</v>
+        <v>1.04066687749896</v>
       </c>
       <c r="L25">
-        <v>0.9783837995556558</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9945106285280642</v>
+        <v>1.040200840066309</v>
       </c>
       <c r="N25">
-        <v>1.000554053236872</v>
+        <v>1.033507358301324</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018556343604975</v>
+        <v>0.9819361246350108</v>
       </c>
       <c r="D2">
-        <v>1.037204608203068</v>
+        <v>1.003966276126505</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.037937788289086</v>
+        <v>0.9578058895354689</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055374569952509</v>
+        <v>1.038529618242987</v>
       </c>
       <c r="J2">
-        <v>1.040195857281466</v>
+        <v>1.004670881660027</v>
       </c>
       <c r="K2">
-        <v>1.048168859840577</v>
+        <v>1.015370629608294</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.048892728906858</v>
+        <v>0.9698861279568619</v>
       </c>
       <c r="N2">
-        <v>1.041673054710938</v>
+        <v>1.005743440612602</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026029002735265</v>
+        <v>0.9862406117268436</v>
       </c>
       <c r="D3">
-        <v>1.043245928982676</v>
+        <v>1.007005654129766</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.044824202516521</v>
+        <v>0.9648774651816179</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058178298373778</v>
+        <v>1.039567960672731</v>
       </c>
       <c r="J3">
-        <v>1.045834392939732</v>
+        <v>1.007113531493817</v>
       </c>
       <c r="K3">
-        <v>1.053353828962453</v>
+        <v>1.017549674246861</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.054913958457691</v>
+        <v>0.9759803855830133</v>
       </c>
       <c r="N3">
-        <v>1.047319597736588</v>
+        <v>1.006547483181023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030714269468475</v>
+        <v>0.9889598849774752</v>
       </c>
       <c r="D4">
-        <v>1.047035774087437</v>
+        <v>1.00892457416151</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.049148286199876</v>
+        <v>0.9693324695530697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059921434463254</v>
+        <v>1.040206698362286</v>
       </c>
       <c r="J4">
-        <v>1.049363646912648</v>
+        <v>1.008650277110761</v>
       </c>
       <c r="K4">
-        <v>1.056597820809588</v>
+        <v>1.018916467655361</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.058687626271269</v>
+        <v>0.9798156806518812</v>
       </c>
       <c r="N4">
-        <v>1.050853863654957</v>
+        <v>1.007053343873388</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032650059217933</v>
+        <v>0.9900878647024971</v>
       </c>
       <c r="D5">
-        <v>1.04860199183193</v>
+        <v>1.009720217726042</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.05093629379111</v>
+        <v>0.971177925818389</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060638033104202</v>
+        <v>1.040467457665017</v>
       </c>
       <c r="J5">
-        <v>1.050820307841698</v>
+        <v>1.00928619709016</v>
       </c>
       <c r="K5">
-        <v>1.057936392721741</v>
+        <v>1.019481032928963</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.060246321379495</v>
+        <v>0.9814034274857283</v>
       </c>
       <c r="N5">
-        <v>1.052312593209608</v>
+        <v>1.007262675864649</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032973154772632</v>
+        <v>0.9902763827741593</v>
       </c>
       <c r="D6">
-        <v>1.04886342343139</v>
+        <v>1.009853170754315</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.051234806248744</v>
+        <v>0.9714862188572986</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060757424185438</v>
+        <v>1.040510789554782</v>
       </c>
       <c r="J6">
-        <v>1.051063343728738</v>
+        <v>1.009392386999509</v>
       </c>
       <c r="K6">
-        <v>1.058159704877541</v>
+        <v>1.01957524601046</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.060506448633249</v>
+        <v>0.9816686090678919</v>
       </c>
       <c r="N6">
-        <v>1.052555974235484</v>
+        <v>1.007297631521613</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030740266227721</v>
+        <v>0.9889750160644644</v>
       </c>
       <c r="D7">
-        <v>1.047056806264657</v>
+        <v>1.008935248623669</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.049172292696536</v>
+        <v>0.9693572345170767</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059931072402214</v>
+        <v>1.040210212941884</v>
       </c>
       <c r="J7">
-        <v>1.049383215220989</v>
+        <v>1.008658813639739</v>
       </c>
       <c r="K7">
-        <v>1.05661580416421</v>
+        <v>1.018924050442561</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.058708560717947</v>
+        <v>0.9798369913007503</v>
       </c>
       <c r="N7">
-        <v>1.05087345975254</v>
+        <v>1.007056153919463</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02111410700548</v>
+        <v>0.9834048902623127</v>
       </c>
       <c r="D8">
-        <v>1.039271962227456</v>
+        <v>1.0050035636998</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.040293485966346</v>
+        <v>0.9602217009229019</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056337319391796</v>
+        <v>1.038887497284014</v>
       </c>
       <c r="J8">
-        <v>1.042127072346296</v>
+        <v>1.005505683200016</v>
       </c>
       <c r="K8">
-        <v>1.04994500220295</v>
+        <v>1.01611618243191</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.050953975459931</v>
+        <v>0.9719688867456038</v>
       </c>
       <c r="N8">
-        <v>1.043607012322673</v>
+        <v>1.006018227296626</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002901149702974</v>
+        <v>0.9730548573521772</v>
       </c>
       <c r="D9">
-        <v>1.024564247935317</v>
+        <v>0.9976920266360814</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.023551079618479</v>
+        <v>0.9431254951203941</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049420578789415</v>
+        <v>1.036294719746296</v>
       </c>
       <c r="J9">
-        <v>1.028351875207335</v>
+        <v>0.999596362905782</v>
       </c>
       <c r="K9">
-        <v>1.037270973779173</v>
+        <v>1.010822660413369</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.036273273066199</v>
+        <v>0.9572140383060478</v>
       </c>
       <c r="N9">
-        <v>1.029812252823739</v>
+        <v>1.004073193720341</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9897578878242743</v>
+        <v>0.9657509595510193</v>
       </c>
       <c r="D10">
-        <v>1.013973159621718</v>
+        <v>0.9925330720155859</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.011514896450087</v>
+        <v>0.9309431274415483</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04435369450586</v>
+        <v>1.034377526441234</v>
       </c>
       <c r="J10">
-        <v>1.018383843602267</v>
+        <v>0.9953925559131792</v>
       </c>
       <c r="K10">
-        <v>1.028094625735037</v>
+        <v>1.007038465725969</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.025679312377223</v>
+        <v>0.9466821805434122</v>
       </c>
       <c r="N10">
-        <v>1.019830065470442</v>
+        <v>1.002689708548798</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9837866665051679</v>
+        <v>0.9624814159449552</v>
       </c>
       <c r="D11">
-        <v>1.009168888081132</v>
+        <v>0.9902249784214495</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.00605943647299</v>
+        <v>0.9254525761523719</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042034937752453</v>
+        <v>1.03349945112441</v>
       </c>
       <c r="J11">
-        <v>1.013849847822144</v>
+        <v>0.9935028181925586</v>
       </c>
       <c r="K11">
-        <v>1.0239199395785</v>
+        <v>1.005333622106517</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.020867978308823</v>
+        <v>0.9419319934649834</v>
       </c>
       <c r="N11">
-        <v>1.015289630896254</v>
+        <v>1.002067852109894</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9815223654556195</v>
+        <v>0.9612498509537848</v>
       </c>
       <c r="D12">
-        <v>1.007348417205534</v>
+        <v>0.9893558617585585</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.003992820326885</v>
+        <v>0.923377919187934</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041153249284637</v>
+        <v>1.033165794847758</v>
       </c>
       <c r="J12">
-        <v>1.012129854393226</v>
+        <v>0.9927898049937669</v>
       </c>
       <c r="K12">
-        <v>1.022336174414165</v>
+        <v>1.00468986786602</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.019043921922886</v>
+        <v>0.9401366325539194</v>
       </c>
       <c r="N12">
-        <v>1.013567194879381</v>
+        <v>1.001833231574348</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9820102366477972</v>
+        <v>0.9615148180782347</v>
       </c>
       <c r="D13">
-        <v>1.007740596761642</v>
+        <v>0.9895428345308231</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.004437999639282</v>
+        <v>0.9238245833653016</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041343326641655</v>
+        <v>1.033237709800243</v>
       </c>
       <c r="J13">
-        <v>1.012500477182759</v>
+        <v>0.9929432612252251</v>
       </c>
       <c r="K13">
-        <v>1.022677445641914</v>
+        <v>1.004828439786566</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.019436915687652</v>
+        <v>0.9405231850091429</v>
       </c>
       <c r="N13">
-        <v>1.013938343995787</v>
+        <v>1.001883726591562</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.983600470330841</v>
+        <v>0.9623799698792219</v>
       </c>
       <c r="D14">
-        <v>1.00901916060344</v>
+        <v>0.9901533813268225</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.005889452325522</v>
+        <v>0.9252818205180418</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041962483630372</v>
+        <v>1.033472025835687</v>
       </c>
       <c r="J14">
-        <v>1.013708424046995</v>
+        <v>0.9934441102962126</v>
       </c>
       <c r="K14">
-        <v>1.023789718280226</v>
+        <v>1.005280626703361</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.020717974637872</v>
+        <v>0.9417842342773308</v>
       </c>
       <c r="N14">
-        <v>1.015148006283123</v>
+        <v>1.002048533754415</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9845739904049864</v>
+        <v>0.962910718015825</v>
       </c>
       <c r="D15">
-        <v>1.009802060253968</v>
+        <v>0.9905279773114483</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.006778295111315</v>
+        <v>0.9261749144299904</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04234121022787</v>
+        <v>1.033615392352691</v>
       </c>
       <c r="J15">
-        <v>1.01444782582675</v>
+        <v>0.9937512112864081</v>
       </c>
       <c r="K15">
-        <v>1.024470547583164</v>
+        <v>1.005557825523086</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>1.021502281243686</v>
+        <v>0.9425570329527749</v>
       </c>
       <c r="N15">
-        <v>1.015888458098216</v>
+        <v>1.002149588519557</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9901479279651857</v>
+        <v>0.96596560864851</v>
       </c>
       <c r="D16">
-        <v>1.014287144850794</v>
+        <v>0.9926846357202793</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>1.011871526401314</v>
+        <v>0.9313027414762904</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044504817998445</v>
+        <v>1.034434766814109</v>
       </c>
       <c r="J16">
-        <v>1.018679902838559</v>
+        <v>0.995516454533513</v>
       </c>
       <c r="K16">
-        <v>1.028367209927225</v>
+        <v>1.007150169258683</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>1.025993636525639</v>
+        <v>0.9469932359162947</v>
       </c>
       <c r="N16">
-        <v>1.020126545144808</v>
+        <v>1.002730481312679</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9935665062513964</v>
+        <v>0.9678525283580011</v>
       </c>
       <c r="D17">
-        <v>1.017039986546215</v>
+        <v>0.9940171463930774</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.014998735492431</v>
+        <v>0.9344596883683012</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045827490259947</v>
+        <v>1.03493570640228</v>
       </c>
       <c r="J17">
-        <v>1.021274179001785</v>
+        <v>0.9966047128093812</v>
       </c>
       <c r="K17">
-        <v>1.030755697030698</v>
+        <v>1.008130896256137</v>
       </c>
       <c r="L17">
         <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.028748795841594</v>
+        <v>0.9497235106583946</v>
       </c>
       <c r="N17">
-        <v>1.022724505477753</v>
+        <v>1.003088614339037</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9955337951607506</v>
+        <v>0.9689428975702989</v>
       </c>
       <c r="D18">
-        <v>1.018624848415865</v>
+        <v>0.9947872609632008</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.01679953653366</v>
+        <v>0.9362804977389418</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046587067873887</v>
+        <v>1.035223294424529</v>
       </c>
       <c r="J18">
-        <v>1.022766598667629</v>
+        <v>0.9972328202252595</v>
       </c>
       <c r="K18">
-        <v>1.032129654688441</v>
+        <v>1.008696583835148</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.030334454728111</v>
+        <v>0.9512978954005328</v>
       </c>
       <c r="N18">
-        <v>1.024219044550706</v>
+        <v>1.003295322837719</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9962001787516175</v>
+        <v>0.9693129788284289</v>
       </c>
       <c r="D19">
-        <v>1.019161802291408</v>
+        <v>0.9950486614004825</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.017409721513293</v>
+        <v>0.9368979362906722</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046844089912428</v>
+        <v>1.035320582666266</v>
       </c>
       <c r="J19">
-        <v>1.023272039627085</v>
+        <v>0.9974458783235537</v>
       </c>
       <c r="K19">
-        <v>1.032594961675383</v>
+        <v>1.008888406622087</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>1.030871588715222</v>
+        <v>0.9518317121117269</v>
       </c>
       <c r="N19">
-        <v>1.024725203294299</v>
+        <v>1.003365440621365</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9932025166665308</v>
+        <v>0.9676511460798187</v>
       </c>
       <c r="D20">
-        <v>1.016746808083063</v>
+        <v>0.9938749210885667</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.014665644563468</v>
+        <v>0.9341231264805819</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045686823682177</v>
+        <v>1.034882438367933</v>
       </c>
       <c r="J20">
-        <v>1.020998008231431</v>
+        <v>0.9964886458311654</v>
       </c>
       <c r="K20">
-        <v>1.030501441025574</v>
+        <v>1.008026334507181</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.02845542669904</v>
+        <v>0.9494324706912233</v>
       </c>
       <c r="N20">
-        <v>1.022447942513228</v>
+        <v>1.003050417453532</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.983133501984425</v>
+        <v>0.9621256855124501</v>
       </c>
       <c r="D21">
-        <v>1.008643675404493</v>
+        <v>0.9899739213254061</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.005463177257724</v>
+        <v>0.924853697321526</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04178073488488</v>
+        <v>1.033403235206014</v>
       </c>
       <c r="J21">
-        <v>1.013353731357236</v>
+        <v>0.9932969341075046</v>
       </c>
       <c r="K21">
-        <v>1.023463120450548</v>
+        <v>1.005147763403477</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.02034178202833</v>
+        <v>0.9414137612933129</v>
       </c>
       <c r="N21">
-        <v>1.014792809889061</v>
+        <v>1.002000104301231</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9765321349228875</v>
+        <v>0.9585520152176571</v>
       </c>
       <c r="D22">
-        <v>1.003339013157758</v>
+        <v>0.9874526460093852</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9994423777687305</v>
+        <v>0.918820191969945</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039205803067045</v>
+        <v>1.032429637266303</v>
       </c>
       <c r="J22">
-        <v>1.008338065959446</v>
+        <v>0.9912257015077065</v>
       </c>
       <c r="K22">
-        <v>1.018844612485509</v>
+        <v>1.003276834828633</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.015024889363937</v>
+        <v>0.9361917206712269</v>
       </c>
       <c r="N22">
-        <v>1.009770021671101</v>
+        <v>1.001318577447561</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9800588723380038</v>
+        <v>0.9604563031341644</v>
       </c>
       <c r="D23">
-        <v>1.006172185680665</v>
+        <v>0.9887959491341574</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.00265771668142</v>
+        <v>0.922039182149813</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040582719973759</v>
+        <v>1.032949997797498</v>
       </c>
       <c r="J23">
-        <v>1.011017985409785</v>
+        <v>0.9923300455447666</v>
       </c>
       <c r="K23">
-        <v>1.021312352206779</v>
+        <v>1.00427463316526</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.017865111437226</v>
+        <v>0.9389780005141524</v>
       </c>
       <c r="N23">
-        <v>1.012453746914451</v>
+        <v>1.001681948719219</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9933670701200544</v>
+        <v>0.967742173627769</v>
       </c>
       <c r="D24">
-        <v>1.016879346929841</v>
+        <v>0.9939392085268928</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.014816225590725</v>
+        <v>0.9342752677116392</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045750421551226</v>
+        <v>1.034906522097771</v>
       </c>
       <c r="J24">
-        <v>1.021122861891293</v>
+        <v>0.9965411120217713</v>
       </c>
       <c r="K24">
-        <v>1.030616387511739</v>
+        <v>1.008073601056139</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.028588053413588</v>
+        <v>0.9495640349990125</v>
       </c>
       <c r="N24">
-        <v>1.022572973479607</v>
+        <v>1.003067683717025</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007773172592172</v>
+        <v>0.9757982969737151</v>
       </c>
       <c r="D25">
-        <v>1.028495378274744</v>
+        <v>0.9996302921405604</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.028022502648752</v>
+        <v>0.9476745674647871</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051283972268487</v>
+        <v>1.036997282913843</v>
       </c>
       <c r="J25">
-        <v>1.032041740652755</v>
+        <v>1.001168527069295</v>
       </c>
       <c r="K25">
-        <v>1.04066687749896</v>
+        <v>1.012234350059706</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.040200840066309</v>
+        <v>0.9611433794505334</v>
       </c>
       <c r="N25">
-        <v>1.033507358301324</v>
+        <v>1.004590640609262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9819361246350108</v>
+        <v>1.011700888260167</v>
       </c>
       <c r="D2">
-        <v>1.003966276126505</v>
+        <v>1.018373784019337</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9578058895354689</v>
+        <v>1.009963350290567</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038529618242987</v>
+        <v>1.024737108760112</v>
       </c>
       <c r="J2">
-        <v>1.004670881660027</v>
+        <v>1.016947847641629</v>
       </c>
       <c r="K2">
-        <v>1.015370629608294</v>
+        <v>1.02122019089174</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9698861279568619</v>
+        <v>1.012834977419816</v>
       </c>
       <c r="N2">
-        <v>1.005743440612602</v>
+        <v>1.009814735657774</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9862406117268436</v>
+        <v>1.012567919567097</v>
       </c>
       <c r="D3">
-        <v>1.007005654129766</v>
+        <v>1.018984946931742</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9648774651816179</v>
+        <v>1.011475701136261</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039567960672731</v>
+        <v>1.024848710347437</v>
       </c>
       <c r="J3">
-        <v>1.007113531493817</v>
+        <v>1.017448690233878</v>
       </c>
       <c r="K3">
-        <v>1.017549674246861</v>
+        <v>1.021637686750333</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9759803855830133</v>
+        <v>1.014149312728175</v>
       </c>
       <c r="N3">
-        <v>1.006547483181023</v>
+        <v>1.009979454800132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9889598849774752</v>
+        <v>1.01312849593714</v>
       </c>
       <c r="D4">
-        <v>1.00892457416151</v>
+        <v>1.019379526142619</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9693324695530697</v>
+        <v>1.012453752266924</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040206698362286</v>
+        <v>1.024918697281743</v>
       </c>
       <c r="J4">
-        <v>1.008650277110761</v>
+        <v>1.017771719002855</v>
       </c>
       <c r="K4">
-        <v>1.018916467655361</v>
+        <v>1.021906261951088</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9798156806518812</v>
+        <v>1.014998758648693</v>
       </c>
       <c r="N4">
-        <v>1.007053343873388</v>
+        <v>1.010085685973224</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9900878647024971</v>
+        <v>1.013364054119463</v>
       </c>
       <c r="D5">
-        <v>1.009720217726042</v>
+        <v>1.019545194602445</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.971177925818389</v>
+        <v>1.012864800561566</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040467457665017</v>
+        <v>1.024947586105939</v>
       </c>
       <c r="J5">
-        <v>1.00928619709016</v>
+        <v>1.017907268768451</v>
       </c>
       <c r="K5">
-        <v>1.019481032928963</v>
+        <v>1.022018793876521</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9814034274857283</v>
+        <v>1.015355626569939</v>
       </c>
       <c r="N5">
-        <v>1.007262675864649</v>
+        <v>1.010130260942786</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9902763827741593</v>
+        <v>1.013403599028691</v>
       </c>
       <c r="D6">
-        <v>1.009853170754315</v>
+        <v>1.01957299856721</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9714862188572986</v>
+        <v>1.012933810232236</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040510789554782</v>
+        <v>1.024952405353728</v>
       </c>
       <c r="J6">
-        <v>1.009392386999509</v>
+        <v>1.01793001341511</v>
       </c>
       <c r="K6">
-        <v>1.01957524601046</v>
+        <v>1.02203766635093</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9816686090678919</v>
+        <v>1.015415532365469</v>
       </c>
       <c r="N6">
-        <v>1.007297631521613</v>
+        <v>1.010137740312107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9889750160644644</v>
+        <v>1.013131643902216</v>
       </c>
       <c r="D7">
-        <v>1.008935248623669</v>
+        <v>1.019381740649512</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9693572345170767</v>
+        <v>1.012459245196837</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040210212941884</v>
+        <v>1.024919085393408</v>
       </c>
       <c r="J7">
-        <v>1.008658813639739</v>
+        <v>1.017773531214059</v>
       </c>
       <c r="K7">
-        <v>1.018924050442561</v>
+        <v>1.021907767090704</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9798369913007503</v>
+        <v>1.015003528069676</v>
       </c>
       <c r="N7">
-        <v>1.007056153919463</v>
+        <v>1.010086281918737</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9834048902623127</v>
+        <v>1.011993998796304</v>
       </c>
       <c r="D8">
-        <v>1.0050035636998</v>
+        <v>1.018580511845594</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9602217009229019</v>
+        <v>1.01047457144109</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038887497284014</v>
+        <v>1.0247752857505</v>
       </c>
       <c r="J8">
-        <v>1.005505683200016</v>
+        <v>1.017117327017547</v>
       </c>
       <c r="K8">
-        <v>1.01611618243191</v>
+        <v>1.021361610808137</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9719688867456038</v>
+        <v>1.013279376347651</v>
       </c>
       <c r="N8">
-        <v>1.006018227296626</v>
+        <v>1.00987047633582</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9730548573521772</v>
+        <v>1.009985876688987</v>
       </c>
       <c r="D9">
-        <v>0.9976920266360814</v>
+        <v>1.017161916230851</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9431254951203941</v>
+        <v>1.006972949548811</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036294719746296</v>
+        <v>1.024504863592926</v>
       </c>
       <c r="J9">
-        <v>0.999596362905782</v>
+        <v>1.015952977712818</v>
       </c>
       <c r="K9">
-        <v>1.010822660413369</v>
+        <v>1.02038719622062</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9572140383060478</v>
+        <v>1.010233218705661</v>
       </c>
       <c r="N9">
-        <v>1.004073193720341</v>
+        <v>1.009487497825462</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9657509595510193</v>
+        <v>1.008644817217841</v>
       </c>
       <c r="D10">
-        <v>0.9925330720155859</v>
+        <v>1.016211717238475</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9309431274415483</v>
+        <v>1.004635271100022</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034377526441234</v>
+        <v>1.024313165759963</v>
       </c>
       <c r="J10">
-        <v>0.9953925559131792</v>
+        <v>1.015171350168007</v>
       </c>
       <c r="K10">
-        <v>1.007038465725969</v>
+        <v>1.019729539567003</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9466821805434122</v>
+        <v>1.008196806991192</v>
       </c>
       <c r="N10">
-        <v>1.002689708548798</v>
+        <v>1.009230365610914</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9624814159449552</v>
+        <v>1.008063575365778</v>
       </c>
       <c r="D11">
-        <v>0.9902249784214495</v>
+        <v>1.015799221475528</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9254525761523719</v>
+        <v>1.003622183686665</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03349945112441</v>
+        <v>1.02422745709784</v>
       </c>
       <c r="J11">
-        <v>0.9935028181925586</v>
+        <v>1.014831617751766</v>
       </c>
       <c r="K11">
-        <v>1.005333622106517</v>
+        <v>1.019442864483395</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9419319934649834</v>
+        <v>1.007313618953825</v>
       </c>
       <c r="N11">
-        <v>1.002067852109894</v>
+        <v>1.009118594811778</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9612498509537848</v>
+        <v>1.007847592849912</v>
       </c>
       <c r="D12">
-        <v>0.9893558617585585</v>
+        <v>1.015645844712157</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.923377919187934</v>
+        <v>1.003245742774031</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033165794847758</v>
+        <v>1.024195215552719</v>
       </c>
       <c r="J12">
-        <v>0.9927898049937669</v>
+        <v>1.014705233251505</v>
       </c>
       <c r="K12">
-        <v>1.00468986786602</v>
+        <v>1.019336094724189</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9401366325539194</v>
+        <v>1.006985346606095</v>
       </c>
       <c r="N12">
-        <v>1.001833231574348</v>
+        <v>1.00907701342331</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9615148180782347</v>
+        <v>1.007893925609761</v>
       </c>
       <c r="D13">
-        <v>0.9895428345308231</v>
+        <v>1.015678751662113</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9238245833653016</v>
+        <v>1.00332649684541</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033237709800243</v>
+        <v>1.024202149817689</v>
       </c>
       <c r="J13">
-        <v>0.9929432612252251</v>
+        <v>1.014732351879627</v>
       </c>
       <c r="K13">
-        <v>1.004828439786566</v>
+        <v>1.019359010129944</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9405231850091429</v>
+        <v>1.007055772045235</v>
       </c>
       <c r="N13">
-        <v>1.001883726591562</v>
+        <v>1.009085935701928</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9623799698792219</v>
+        <v>1.008045723886103</v>
       </c>
       <c r="D14">
-        <v>0.9901533813268225</v>
+        <v>1.015786546512336</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9252818205180418</v>
+        <v>1.003591069757086</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033472025835687</v>
+        <v>1.024224800271838</v>
       </c>
       <c r="J14">
-        <v>0.9934441102962126</v>
+        <v>1.014821174702127</v>
       </c>
       <c r="K14">
-        <v>1.005280626703361</v>
+        <v>1.019434044691194</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9417842342773308</v>
+        <v>1.00728648831699</v>
       </c>
       <c r="N14">
-        <v>1.002048533754415</v>
+        <v>1.009115159001906</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.962910718015825</v>
+        <v>1.008139240756685</v>
       </c>
       <c r="D15">
-        <v>0.9905279773114483</v>
+        <v>1.015852941633835</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9261749144299904</v>
+        <v>1.00375406376197</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033615392352691</v>
+        <v>1.024238702240504</v>
       </c>
       <c r="J15">
-        <v>0.9937512112864081</v>
+        <v>1.014875875830476</v>
       </c>
       <c r="K15">
-        <v>1.005557825523086</v>
+        <v>1.019480238092022</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9425570329527749</v>
+        <v>1.007428611311582</v>
       </c>
       <c r="N15">
-        <v>1.002149588519557</v>
+        <v>1.009133155862951</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.96596560864851</v>
+        <v>1.008683380636064</v>
       </c>
       <c r="D16">
-        <v>0.9926846357202793</v>
+        <v>1.016239071098364</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9313027414762904</v>
+        <v>1.004702487773215</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034434766814109</v>
+        <v>1.024318797067157</v>
       </c>
       <c r="J16">
-        <v>0.995516454533513</v>
+        <v>1.015193870062629</v>
       </c>
       <c r="K16">
-        <v>1.007150169258683</v>
+        <v>1.019748525137655</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9469932359162947</v>
+        <v>1.00825539114045</v>
       </c>
       <c r="N16">
-        <v>1.002730481312679</v>
+        <v>1.009237774392741</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9678525283580011</v>
+        <v>1.009024556722395</v>
       </c>
       <c r="D17">
-        <v>0.9940171463930774</v>
+        <v>1.016480998461306</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9344596883683012</v>
+        <v>1.005297175126365</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03493570640228</v>
+        <v>1.024368315291226</v>
       </c>
       <c r="J17">
-        <v>0.9966047128093812</v>
+        <v>1.015392996029741</v>
       </c>
       <c r="K17">
-        <v>1.008130896256137</v>
+        <v>1.019916304666739</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9497235106583946</v>
+        <v>1.008773627434139</v>
       </c>
       <c r="N17">
-        <v>1.003088614339037</v>
+        <v>1.009303283478062</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9689428975702989</v>
+        <v>1.00922350549452</v>
       </c>
       <c r="D18">
-        <v>0.9947872609632008</v>
+        <v>1.016622008916878</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9362804977389418</v>
+        <v>1.005643963917157</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035223294424529</v>
+        <v>1.024396937677607</v>
       </c>
       <c r="J18">
-        <v>0.9972328202252595</v>
+        <v>1.015509019097165</v>
       </c>
       <c r="K18">
-        <v>1.008696583835148</v>
+        <v>1.020013983757049</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9512978954005328</v>
+        <v>1.009075770377467</v>
       </c>
       <c r="N18">
-        <v>1.003295322837719</v>
+        <v>1.009341452248794</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9693129788284289</v>
+        <v>1.009291332819707</v>
       </c>
       <c r="D19">
-        <v>0.9950486614004825</v>
+        <v>1.016670072567096</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9368979362906722</v>
+        <v>1.00576219616936</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035320582666266</v>
+        <v>1.024406652929138</v>
       </c>
       <c r="J19">
-        <v>0.9974458783235537</v>
+        <v>1.015548558978214</v>
       </c>
       <c r="K19">
-        <v>1.008888406622087</v>
+        <v>1.020047258602617</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9518317121117269</v>
+        <v>1.009178770490507</v>
       </c>
       <c r="N19">
-        <v>1.003365440621365</v>
+        <v>1.009354459762295</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9676511460798187</v>
+        <v>1.008987957288347</v>
       </c>
       <c r="D20">
-        <v>0.9938749210885667</v>
+        <v>1.016455052456525</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9341231264805819</v>
+        <v>1.005233379357276</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034882438367933</v>
+        <v>1.024363029422307</v>
       </c>
       <c r="J20">
-        <v>0.9964886458311654</v>
+        <v>1.015371644497355</v>
       </c>
       <c r="K20">
-        <v>1.008026334507181</v>
+        <v>1.019898322526685</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9494324706912233</v>
+        <v>1.008718039640073</v>
       </c>
       <c r="N20">
-        <v>1.003050417453532</v>
+        <v>1.009296259272996</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9621256855124501</v>
+        <v>1.008001025380997</v>
       </c>
       <c r="D21">
-        <v>0.9899739213254061</v>
+        <v>1.015754807956456</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.924853697321526</v>
+        <v>1.003513163410628</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033403235206014</v>
+        <v>1.02421814146876</v>
       </c>
       <c r="J21">
-        <v>0.9932969341075046</v>
+        <v>1.014795023916337</v>
       </c>
       <c r="K21">
-        <v>1.005147763403477</v>
+        <v>1.019411956771367</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9414137612933129</v>
+        <v>1.007218554158861</v>
       </c>
       <c r="N21">
-        <v>1.002000104301231</v>
+        <v>1.009106555255569</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9585520152176571</v>
+        <v>1.007380019440693</v>
       </c>
       <c r="D22">
-        <v>0.9874526460093852</v>
+        <v>1.015313625741673</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.918820191969945</v>
+        <v>1.002430810319801</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032429637266303</v>
+        <v>1.024124698592994</v>
       </c>
       <c r="J22">
-        <v>0.9912257015077065</v>
+        <v>1.01443136440953</v>
       </c>
       <c r="K22">
-        <v>1.003276834828633</v>
+        <v>1.019104505552012</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9361917206712269</v>
+        <v>1.006274510004032</v>
       </c>
       <c r="N22">
-        <v>1.001318577447561</v>
+        <v>1.008986906255054</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9604563031341644</v>
+        <v>1.007709272243503</v>
       </c>
       <c r="D23">
-        <v>0.9887959491341574</v>
+        <v>1.015547590850355</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.922039182149813</v>
+        <v>1.003004662717958</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032949997797498</v>
+        <v>1.024174456663089</v>
       </c>
       <c r="J23">
-        <v>0.9923300455447666</v>
+        <v>1.014624252935517</v>
       </c>
       <c r="K23">
-        <v>1.00427463316526</v>
+        <v>1.019267647890193</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9389780005141524</v>
+        <v>1.00677508674112</v>
       </c>
       <c r="N23">
-        <v>1.001681948719219</v>
+        <v>1.009050369960999</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.967742173627769</v>
+        <v>1.009004495162197</v>
       </c>
       <c r="D24">
-        <v>0.9939392085268928</v>
+        <v>1.016466776653412</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9342752677116392</v>
+        <v>1.005262206171984</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034906522097771</v>
+        <v>1.02436541868462</v>
       </c>
       <c r="J24">
-        <v>0.9965411120217713</v>
+        <v>1.015381292717962</v>
       </c>
       <c r="K24">
-        <v>1.008073601056139</v>
+        <v>1.0199064484498</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9495640349990125</v>
+        <v>1.008743157788867</v>
       </c>
       <c r="N24">
-        <v>1.003067683717025</v>
+        <v>1.009299433337311</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9757982969737151</v>
+        <v>1.010505432134435</v>
       </c>
       <c r="D25">
-        <v>0.9996302921405604</v>
+        <v>1.017529448769823</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9476745674647871</v>
+        <v>1.007878754181918</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036997282913843</v>
+        <v>1.024576788776056</v>
       </c>
       <c r="J25">
-        <v>1.001168527069295</v>
+        <v>1.016254941199935</v>
       </c>
       <c r="K25">
-        <v>1.012234350059706</v>
+        <v>1.02064052641772</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9611433794505334</v>
+        <v>1.01102169741244</v>
       </c>
       <c r="N25">
-        <v>1.004590640609262</v>
+        <v>1.009586826750631</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011700888260167</v>
+        <v>0.9819361246350113</v>
       </c>
       <c r="D2">
-        <v>1.018373784019337</v>
+        <v>1.003966276126505</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.009963350290567</v>
+        <v>0.9578058895354684</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.024737108760112</v>
+        <v>1.038529618242987</v>
       </c>
       <c r="J2">
-        <v>1.016947847641629</v>
+        <v>1.004670881660027</v>
       </c>
       <c r="K2">
-        <v>1.02122019089174</v>
+        <v>1.015370629608294</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.012834977419816</v>
+        <v>0.9698861279568615</v>
       </c>
       <c r="N2">
-        <v>1.009814735657774</v>
+        <v>1.005743440612602</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012567919567097</v>
+        <v>0.9862406117268435</v>
       </c>
       <c r="D3">
-        <v>1.018984946931742</v>
+        <v>1.007005654129766</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.011475701136261</v>
+        <v>0.964877465181618</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.024848710347437</v>
+        <v>1.039567960672731</v>
       </c>
       <c r="J3">
-        <v>1.017448690233878</v>
+        <v>1.007113531493817</v>
       </c>
       <c r="K3">
-        <v>1.021637686750333</v>
+        <v>1.017549674246861</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.014149312728175</v>
+        <v>0.9759803855830134</v>
       </c>
       <c r="N3">
-        <v>1.009979454800132</v>
+        <v>1.006547483181023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01312849593714</v>
+        <v>0.9889598849774757</v>
       </c>
       <c r="D4">
-        <v>1.019379526142619</v>
+        <v>1.00892457416151</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.012453752266924</v>
+        <v>0.96933246955307</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.024918697281743</v>
+        <v>1.040206698362286</v>
       </c>
       <c r="J4">
-        <v>1.017771719002855</v>
+        <v>1.008650277110761</v>
       </c>
       <c r="K4">
-        <v>1.021906261951088</v>
+        <v>1.018916467655361</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.014998758648693</v>
+        <v>0.9798156806518814</v>
       </c>
       <c r="N4">
-        <v>1.010085685973224</v>
+        <v>1.007053343873388</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013364054119463</v>
+        <v>0.9900878647024978</v>
       </c>
       <c r="D5">
-        <v>1.019545194602445</v>
+        <v>1.009720217726042</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.012864800561566</v>
+        <v>0.9711779258183892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.024947586105939</v>
+        <v>1.040467457665018</v>
       </c>
       <c r="J5">
-        <v>1.017907268768451</v>
+        <v>1.009286197090161</v>
       </c>
       <c r="K5">
-        <v>1.022018793876521</v>
+        <v>1.019481032928964</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.015355626569939</v>
+        <v>0.9814034274857287</v>
       </c>
       <c r="N5">
-        <v>1.010130260942786</v>
+        <v>1.007262675864649</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013403599028691</v>
+        <v>0.990276382774159</v>
       </c>
       <c r="D6">
-        <v>1.01957299856721</v>
+        <v>1.009853170754314</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.012933810232236</v>
+        <v>0.9714862188572982</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.024952405353728</v>
+        <v>1.040510789554782</v>
       </c>
       <c r="J6">
-        <v>1.01793001341511</v>
+        <v>1.009392386999508</v>
       </c>
       <c r="K6">
-        <v>1.02203766635093</v>
+        <v>1.01957524601046</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.015415532365469</v>
+        <v>0.9816686090678916</v>
       </c>
       <c r="N6">
-        <v>1.010137740312107</v>
+        <v>1.007297631521613</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013131643902216</v>
+        <v>0.9889750160644645</v>
       </c>
       <c r="D7">
-        <v>1.019381740649512</v>
+        <v>1.008935248623669</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.012459245196837</v>
+        <v>0.9693572345170771</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.024919085393408</v>
+        <v>1.040210212941884</v>
       </c>
       <c r="J7">
-        <v>1.017773531214059</v>
+        <v>1.008658813639739</v>
       </c>
       <c r="K7">
-        <v>1.021907767090704</v>
+        <v>1.018924050442561</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.015003528069676</v>
+        <v>0.9798369913007505</v>
       </c>
       <c r="N7">
-        <v>1.010086281918737</v>
+        <v>1.007056153919463</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011993998796304</v>
+        <v>0.9834048902623135</v>
       </c>
       <c r="D8">
-        <v>1.018580511845594</v>
+        <v>1.005003563699801</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.01047457144109</v>
+        <v>0.9602217009229028</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0247752857505</v>
+        <v>1.038887497284015</v>
       </c>
       <c r="J8">
-        <v>1.017117327017547</v>
+        <v>1.005505683200017</v>
       </c>
       <c r="K8">
-        <v>1.021361610808137</v>
+        <v>1.016116182431911</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.013279376347651</v>
+        <v>0.9719688867456044</v>
       </c>
       <c r="N8">
-        <v>1.00987047633582</v>
+        <v>1.006018227296627</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009985876688987</v>
+        <v>0.9730548573521772</v>
       </c>
       <c r="D9">
-        <v>1.017161916230851</v>
+        <v>0.9976920266360811</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.006972949548811</v>
+        <v>0.9431254951203939</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024504863592926</v>
+        <v>1.036294719746296</v>
       </c>
       <c r="J9">
-        <v>1.015952977712818</v>
+        <v>0.999596362905782</v>
       </c>
       <c r="K9">
-        <v>1.02038719622062</v>
+        <v>1.010822660413368</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.010233218705661</v>
+        <v>0.9572140383060476</v>
       </c>
       <c r="N9">
-        <v>1.009487497825462</v>
+        <v>1.004073193720341</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008644817217841</v>
+        <v>0.9657509595510192</v>
       </c>
       <c r="D10">
-        <v>1.016211717238475</v>
+        <v>0.992533072015586</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.004635271100022</v>
+        <v>0.9309431274415486</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024313165759963</v>
+        <v>1.034377526441234</v>
       </c>
       <c r="J10">
-        <v>1.015171350168007</v>
+        <v>0.995392555913179</v>
       </c>
       <c r="K10">
-        <v>1.019729539567003</v>
+        <v>1.007038465725969</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.008196806991192</v>
+        <v>0.9466821805434125</v>
       </c>
       <c r="N10">
-        <v>1.009230365610914</v>
+        <v>1.002689708548798</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008063575365778</v>
+        <v>0.9624814159449551</v>
       </c>
       <c r="D11">
-        <v>1.015799221475528</v>
+        <v>0.9902249784214494</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.003622183686665</v>
+        <v>0.9254525761523718</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02422745709784</v>
+        <v>1.03349945112441</v>
       </c>
       <c r="J11">
-        <v>1.014831617751766</v>
+        <v>0.9935028181925585</v>
       </c>
       <c r="K11">
-        <v>1.019442864483395</v>
+        <v>1.005333622106516</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.007313618953825</v>
+        <v>0.9419319934649831</v>
       </c>
       <c r="N11">
-        <v>1.009118594811778</v>
+        <v>1.002067852109894</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007847592849912</v>
+        <v>0.9612498509537855</v>
       </c>
       <c r="D12">
-        <v>1.015645844712157</v>
+        <v>0.9893558617585589</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.003245742774031</v>
+        <v>0.923377919187934</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024195215552719</v>
+        <v>1.033165794847758</v>
       </c>
       <c r="J12">
-        <v>1.014705233251505</v>
+        <v>0.9927898049937676</v>
       </c>
       <c r="K12">
-        <v>1.019336094724189</v>
+        <v>1.00468986786602</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.006985346606095</v>
+        <v>0.9401366325539194</v>
       </c>
       <c r="N12">
-        <v>1.00907701342331</v>
+        <v>1.001833231574348</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007893925609761</v>
+        <v>0.9615148180782345</v>
       </c>
       <c r="D13">
-        <v>1.015678751662113</v>
+        <v>0.9895428345308231</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.00332649684541</v>
+        <v>0.9238245833653016</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024202149817689</v>
+        <v>1.033237709800243</v>
       </c>
       <c r="J13">
-        <v>1.014732351879627</v>
+        <v>0.9929432612252251</v>
       </c>
       <c r="K13">
-        <v>1.019359010129944</v>
+        <v>1.004828439786566</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.007055772045235</v>
+        <v>0.9405231850091431</v>
       </c>
       <c r="N13">
-        <v>1.009085935701928</v>
+        <v>1.001883726591562</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008045723886103</v>
+        <v>0.9623799698792221</v>
       </c>
       <c r="D14">
-        <v>1.015786546512336</v>
+        <v>0.990153381326823</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.003591069757086</v>
+        <v>0.9252818205180424</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024224800271838</v>
+        <v>1.033472025835687</v>
       </c>
       <c r="J14">
-        <v>1.014821174702127</v>
+        <v>0.9934441102962129</v>
       </c>
       <c r="K14">
-        <v>1.019434044691194</v>
+        <v>1.005280626703361</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.00728648831699</v>
+        <v>0.9417842342773313</v>
       </c>
       <c r="N14">
-        <v>1.009115159001906</v>
+        <v>1.002048533754415</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008139240756685</v>
+        <v>0.9629107180158257</v>
       </c>
       <c r="D15">
-        <v>1.015852941633835</v>
+        <v>0.9905279773114491</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.00375406376197</v>
+        <v>0.9261749144299914</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024238702240504</v>
+        <v>1.033615392352692</v>
       </c>
       <c r="J15">
-        <v>1.014875875830476</v>
+        <v>0.993751211286409</v>
       </c>
       <c r="K15">
-        <v>1.019480238092022</v>
+        <v>1.005557825523087</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.007428611311582</v>
+        <v>0.9425570329527758</v>
       </c>
       <c r="N15">
-        <v>1.009133155862951</v>
+        <v>1.002149588519557</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008683380636064</v>
+        <v>0.9659656086485098</v>
       </c>
       <c r="D16">
-        <v>1.016239071098364</v>
+        <v>0.9926846357202794</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.004702487773215</v>
+        <v>0.9313027414762899</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024318797067157</v>
+        <v>1.034434766814109</v>
       </c>
       <c r="J16">
-        <v>1.015193870062629</v>
+        <v>0.9955164545335129</v>
       </c>
       <c r="K16">
-        <v>1.019748525137655</v>
+        <v>1.007150169258683</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.00825539114045</v>
+        <v>0.9469932359162941</v>
       </c>
       <c r="N16">
-        <v>1.009237774392741</v>
+        <v>1.002730481312679</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009024556722395</v>
+        <v>0.967852528358002</v>
       </c>
       <c r="D17">
-        <v>1.016480998461306</v>
+        <v>0.994017146393078</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.005297175126365</v>
+        <v>0.9344596883683022</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024368315291226</v>
+        <v>1.03493570640228</v>
       </c>
       <c r="J17">
-        <v>1.015392996029741</v>
+        <v>0.9966047128093821</v>
       </c>
       <c r="K17">
-        <v>1.019916304666739</v>
+        <v>1.008130896256138</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.008773627434139</v>
+        <v>0.9497235106583954</v>
       </c>
       <c r="N17">
-        <v>1.009303283478062</v>
+        <v>1.003088614339038</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00922350549452</v>
+        <v>0.9689428975702989</v>
       </c>
       <c r="D18">
-        <v>1.016622008916878</v>
+        <v>0.9947872609632007</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.005643963917157</v>
+        <v>0.9362804977389421</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024396937677607</v>
+        <v>1.035223294424529</v>
       </c>
       <c r="J18">
-        <v>1.015509019097165</v>
+        <v>0.9972328202252594</v>
       </c>
       <c r="K18">
-        <v>1.020013983757049</v>
+        <v>1.008696583835148</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.009075770377467</v>
+        <v>0.951297895400533</v>
       </c>
       <c r="N18">
-        <v>1.009341452248794</v>
+        <v>1.003295322837719</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009291332819707</v>
+        <v>0.969312978828429</v>
       </c>
       <c r="D19">
-        <v>1.016670072567096</v>
+        <v>0.9950486614004824</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.00576219616936</v>
+        <v>0.9368979362906728</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024406652929138</v>
+        <v>1.035320582666266</v>
       </c>
       <c r="J19">
-        <v>1.015548558978214</v>
+        <v>0.9974458783235538</v>
       </c>
       <c r="K19">
-        <v>1.020047258602617</v>
+        <v>1.008888406622087</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.009178770490507</v>
+        <v>0.9518317121117275</v>
       </c>
       <c r="N19">
-        <v>1.009354459762295</v>
+        <v>1.003365440621365</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008987957288347</v>
+        <v>0.9676511460798181</v>
       </c>
       <c r="D20">
-        <v>1.016455052456525</v>
+        <v>0.993874921088566</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.005233379357276</v>
+        <v>0.9341231264805817</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024363029422307</v>
+        <v>1.034882438367933</v>
       </c>
       <c r="J20">
-        <v>1.015371644497355</v>
+        <v>0.9964886458311648</v>
       </c>
       <c r="K20">
-        <v>1.019898322526685</v>
+        <v>1.00802633450718</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.008718039640073</v>
+        <v>0.9494324706912227</v>
       </c>
       <c r="N20">
-        <v>1.009296259272996</v>
+        <v>1.003050417453532</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008001025380997</v>
+        <v>0.9621256855124501</v>
       </c>
       <c r="D21">
-        <v>1.015754807956456</v>
+        <v>0.9899739213254061</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.003513163410628</v>
+        <v>0.9248536973215261</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02421814146876</v>
+        <v>1.033403235206014</v>
       </c>
       <c r="J21">
-        <v>1.014795023916337</v>
+        <v>0.9932969341075047</v>
       </c>
       <c r="K21">
-        <v>1.019411956771367</v>
+        <v>1.005147763403477</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.007218554158861</v>
+        <v>0.9414137612933132</v>
       </c>
       <c r="N21">
-        <v>1.009106555255569</v>
+        <v>1.002000104301231</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007380019440693</v>
+        <v>0.9585520152176569</v>
       </c>
       <c r="D22">
-        <v>1.015313625741673</v>
+        <v>0.987452646009385</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.002430810319801</v>
+        <v>0.9188201919699442</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024124698592994</v>
+        <v>1.032429637266303</v>
       </c>
       <c r="J22">
-        <v>1.01443136440953</v>
+        <v>0.9912257015077064</v>
       </c>
       <c r="K22">
-        <v>1.019104505552012</v>
+        <v>1.003276834828633</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.006274510004032</v>
+        <v>0.9361917206712264</v>
       </c>
       <c r="N22">
-        <v>1.008986906255054</v>
+        <v>1.001318577447561</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007709272243503</v>
+        <v>0.9604563031341647</v>
       </c>
       <c r="D23">
-        <v>1.015547590850355</v>
+        <v>0.9887959491341574</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.003004662717958</v>
+        <v>0.9220391821498134</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024174456663089</v>
+        <v>1.032949997797498</v>
       </c>
       <c r="J23">
-        <v>1.014624252935517</v>
+        <v>0.9923300455447666</v>
       </c>
       <c r="K23">
-        <v>1.019267647890193</v>
+        <v>1.00427463316526</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.00677508674112</v>
+        <v>0.9389780005141527</v>
       </c>
       <c r="N23">
-        <v>1.009050369960999</v>
+        <v>1.001681948719219</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009004495162197</v>
+        <v>0.9677421736277685</v>
       </c>
       <c r="D24">
-        <v>1.016466776653412</v>
+        <v>0.9939392085268925</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.005262206171984</v>
+        <v>0.934275267711639</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02436541868462</v>
+        <v>1.034906522097771</v>
       </c>
       <c r="J24">
-        <v>1.015381292717962</v>
+        <v>0.996541112021771</v>
       </c>
       <c r="K24">
-        <v>1.0199064484498</v>
+        <v>1.008073601056139</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.008743157788867</v>
+        <v>0.9495640349990125</v>
       </c>
       <c r="N24">
-        <v>1.009299433337311</v>
+        <v>1.003067683717025</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010505432134435</v>
+        <v>0.9757982969737155</v>
       </c>
       <c r="D25">
-        <v>1.017529448769823</v>
+        <v>0.9996302921405609</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.007878754181918</v>
+        <v>0.9476745674647875</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024576788776056</v>
+        <v>1.036997282913844</v>
       </c>
       <c r="J25">
-        <v>1.016254941199935</v>
+        <v>1.001168527069295</v>
       </c>
       <c r="K25">
-        <v>1.02064052641772</v>
+        <v>1.012234350059706</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.01102169741244</v>
+        <v>0.9611433794505337</v>
       </c>
       <c r="N25">
-        <v>1.009586826750631</v>
+        <v>1.004590640609262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9819361246350113</v>
+        <v>1.013619841340583</v>
       </c>
       <c r="D2">
-        <v>1.003966276126505</v>
+        <v>1.033906784694704</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9578058895354684</v>
+        <v>1.036739671770599</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038529618242987</v>
+        <v>1.052804663630099</v>
       </c>
       <c r="J2">
-        <v>1.004670881660027</v>
+        <v>1.035400678876558</v>
       </c>
       <c r="K2">
-        <v>1.015370629608294</v>
+        <v>1.04491312111847</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9698861279568615</v>
+        <v>1.047709836390091</v>
       </c>
       <c r="N2">
-        <v>1.005743440612602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01575418279695</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.0463315025497</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042827745474763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9862406117268435</v>
+        <v>1.016692565995562</v>
       </c>
       <c r="D3">
-        <v>1.007005654129766</v>
+        <v>1.035960107779612</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.964877465181618</v>
+        <v>1.039001232042368</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039567960672731</v>
+        <v>1.053520886022118</v>
       </c>
       <c r="J3">
-        <v>1.007113531493817</v>
+        <v>1.036738292143834</v>
       </c>
       <c r="K3">
-        <v>1.017549674246861</v>
+        <v>1.046152653118066</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9759803855830134</v>
+        <v>1.049158267690498</v>
       </c>
       <c r="N3">
-        <v>1.006547483181023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016197237109228</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047477828741728</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043701540796736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9889598849774757</v>
+        <v>1.018649041617937</v>
       </c>
       <c r="D4">
-        <v>1.00892457416151</v>
+        <v>1.037271015313511</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.96933246955307</v>
+        <v>1.040447754736377</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040206698362286</v>
+        <v>1.053967693013004</v>
       </c>
       <c r="J4">
-        <v>1.008650277110761</v>
+        <v>1.037587440967441</v>
       </c>
       <c r="K4">
-        <v>1.018916467655361</v>
+        <v>1.046939496499355</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9798156806518814</v>
+        <v>1.050081340714502</v>
       </c>
       <c r="N4">
-        <v>1.007053343873388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016478616276135</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04820837180609</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044258789731267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9900878647024978</v>
+        <v>1.019466666714558</v>
       </c>
       <c r="D5">
-        <v>1.009720217726042</v>
+        <v>1.037821511073295</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9711779258183892</v>
+        <v>1.04105445994638</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040467457665018</v>
+        <v>1.054153575006526</v>
       </c>
       <c r="J5">
-        <v>1.009286197090161</v>
+        <v>1.037943061134488</v>
       </c>
       <c r="K5">
-        <v>1.019481032928964</v>
+        <v>1.04727021722075</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9814034274857287</v>
+        <v>1.050468582952928</v>
       </c>
       <c r="N5">
-        <v>1.007262675864649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016596736138662</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04851484477861</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044499761209893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.990276382774159</v>
+        <v>1.019606620546225</v>
       </c>
       <c r="D6">
-        <v>1.009853170754314</v>
+        <v>1.037918022015312</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9714862188572982</v>
+        <v>1.041159185551813</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040510789554782</v>
+        <v>1.054186969979289</v>
       </c>
       <c r="J6">
-        <v>1.009392386999508</v>
+        <v>1.038005576219184</v>
       </c>
       <c r="K6">
-        <v>1.01957524601046</v>
+        <v>1.047329814329397</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9816686090678916</v>
+        <v>1.050536462969413</v>
       </c>
       <c r="N6">
-        <v>1.007297631521613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016617806732051</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048568566669747</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044550592590058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9889750160644645</v>
+        <v>1.018668310626369</v>
       </c>
       <c r="D7">
-        <v>1.008935248623669</v>
+        <v>1.0372899545243</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9693572345170771</v>
+        <v>1.040464140593401</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040210212941884</v>
+        <v>1.053976653370132</v>
       </c>
       <c r="J7">
-        <v>1.008658813639739</v>
+        <v>1.037600320442426</v>
       </c>
       <c r="K7">
-        <v>1.018924050442561</v>
+        <v>1.046955369310073</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9798369913007505</v>
+        <v>1.050094701273607</v>
       </c>
       <c r="N7">
-        <v>1.007056153919463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016483718098584</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048218945681237</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044290003333679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9834048902623135</v>
+        <v>1.014675250104319</v>
       </c>
       <c r="D8">
-        <v>1.005003563699801</v>
+        <v>1.034618643027348</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9602217009229028</v>
+        <v>1.037517684042397</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038887497284015</v>
+        <v>1.053058116735924</v>
       </c>
       <c r="J8">
-        <v>1.005505683200017</v>
+        <v>1.035866153089271</v>
       </c>
       <c r="K8">
-        <v>1.016116182431911</v>
+        <v>1.04534924446634</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9719688867456044</v>
+        <v>1.048212348924911</v>
       </c>
       <c r="N8">
-        <v>1.006018227296627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015909397570772</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046729204237485</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043158888623346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9730548573521772</v>
+        <v>1.007373874539639</v>
       </c>
       <c r="D9">
-        <v>0.9976920266360811</v>
+        <v>1.029753653814711</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9431254951203939</v>
+        <v>1.032179535448339</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036294719746296</v>
+        <v>1.051299975410129</v>
       </c>
       <c r="J9">
-        <v>0.999596362905782</v>
+        <v>1.03266890271052</v>
       </c>
       <c r="K9">
-        <v>1.010822660413368</v>
+        <v>1.042381762841187</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9572140383060476</v>
+        <v>1.0447712386229</v>
       </c>
       <c r="N9">
-        <v>1.004073193720341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014850101375623</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044005814378084</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041057554808269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9657509595510192</v>
+        <v>1.002369425015683</v>
       </c>
       <c r="D10">
-        <v>0.992533072015586</v>
+        <v>1.026464397848232</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9309431274415486</v>
+        <v>1.028637924415775</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034377526441234</v>
+        <v>1.050069137903283</v>
       </c>
       <c r="J10">
-        <v>0.995392555913179</v>
+        <v>1.030489349113067</v>
       </c>
       <c r="K10">
-        <v>1.007038465725969</v>
+        <v>1.04037172241434</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9466821805434125</v>
+        <v>1.042508672349764</v>
       </c>
       <c r="N10">
-        <v>1.002689708548798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014132531048751</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042266354359066</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039653065461865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9624814159449551</v>
+        <v>1.000496935801028</v>
       </c>
       <c r="D11">
-        <v>0.9902249784214494</v>
+        <v>1.025420131287933</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9254525761523718</v>
+        <v>1.027954918439239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03349945112441</v>
+        <v>1.049749896200319</v>
       </c>
       <c r="J11">
-        <v>0.9935028181925585</v>
+        <v>1.029849056265438</v>
       </c>
       <c r="K11">
-        <v>1.005333622106516</v>
+        <v>1.039878072021101</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9419319934649831</v>
+        <v>1.042368223934785</v>
       </c>
       <c r="N11">
-        <v>1.002067852109894</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013952207030374</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042589353571923</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03933669303876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9612498509537855</v>
+        <v>0.9999008834399267</v>
       </c>
       <c r="D12">
-        <v>0.9893558617585589</v>
+        <v>1.025155326956467</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.923377919187934</v>
+        <v>1.027999005094962</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033165794847758</v>
+        <v>1.049701368373561</v>
       </c>
       <c r="J12">
-        <v>0.9927898049937676</v>
+        <v>1.029709438649188</v>
       </c>
       <c r="K12">
-        <v>1.00468986786602</v>
+        <v>1.039815954243786</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9401366325539194</v>
+        <v>1.04260875362939</v>
       </c>
       <c r="N12">
-        <v>1.001833231574348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013928282078277</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043104540725526</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03929277424231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9615148180782345</v>
+        <v>1.000259849072417</v>
       </c>
       <c r="D13">
-        <v>0.9895428345308231</v>
+        <v>1.025489635741637</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9238245833653016</v>
+        <v>1.028629397423338</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033237709800243</v>
+        <v>1.049872259228556</v>
       </c>
       <c r="J13">
-        <v>0.9929432612252251</v>
+        <v>1.029960634864193</v>
       </c>
       <c r="K13">
-        <v>1.004828439786566</v>
+        <v>1.04010181119908</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.9405231850091431</v>
+        <v>1.043185652188962</v>
       </c>
       <c r="N13">
-        <v>1.001883726591562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014029351049749</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.043836234836623</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039492404316096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9623799698792221</v>
+        <v>1.000943681523798</v>
       </c>
       <c r="D14">
-        <v>0.990153381326823</v>
+        <v>1.025995177214037</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9252818205180424</v>
+        <v>1.029335275288352</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033472025835687</v>
+        <v>1.050090867017869</v>
       </c>
       <c r="J14">
-        <v>0.9934441102962129</v>
+        <v>1.03031285289862</v>
       </c>
       <c r="K14">
-        <v>1.005280626703361</v>
+        <v>1.040459315634862</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9417842342773313</v>
+        <v>1.043740666135824</v>
       </c>
       <c r="N14">
-        <v>1.002048533754415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014156441744003</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044447661394045</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039746584945055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9629107180158257</v>
+        <v>1.001323840746958</v>
       </c>
       <c r="D15">
-        <v>0.9905279773114491</v>
+        <v>1.026257775845493</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>0.9261749144299914</v>
+        <v>1.029651669880057</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033615392352692</v>
+        <v>1.050197229429281</v>
       </c>
       <c r="J15">
-        <v>0.993751211286409</v>
+        <v>1.030490893700166</v>
       </c>
       <c r="K15">
-        <v>1.005557825523087</v>
+        <v>1.040631659595251</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>0.9425570329527758</v>
+        <v>1.043966309590702</v>
       </c>
       <c r="N15">
-        <v>1.002149588519557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014217512957541</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044663422176105</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039874272211301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9659656086485098</v>
+        <v>1.003376025640905</v>
       </c>
       <c r="D16">
-        <v>0.9926846357202794</v>
+        <v>1.027595314637467</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9313027414762899</v>
+        <v>1.031066538160879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034434766814109</v>
+        <v>1.050705653896875</v>
       </c>
       <c r="J16">
-        <v>0.9955164545335129</v>
+        <v>1.031379976662578</v>
       </c>
       <c r="K16">
-        <v>1.007150169258683</v>
+        <v>1.041448313875489</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9469932359162941</v>
+        <v>1.044861552266307</v>
       </c>
       <c r="N16">
-        <v>1.002730481312679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014507621757431</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04533243348397</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040454819364697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.967852528358002</v>
+        <v>1.0045945139488</v>
       </c>
       <c r="D17">
-        <v>0.994017146393078</v>
+        <v>1.028358203890245</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9344596883683022</v>
+        <v>1.031778184235925</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03493570640228</v>
+        <v>1.050978893125141</v>
       </c>
       <c r="J17">
-        <v>0.9966047128093821</v>
+        <v>1.031877269575949</v>
       </c>
       <c r="K17">
-        <v>1.008130896256138</v>
+        <v>1.041886632847508</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9497235106583954</v>
+        <v>1.045251060866731</v>
       </c>
       <c r="N17">
-        <v>1.003088614339038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014663494960375</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045511725080646</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040767298220216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9689428975702989</v>
+        <v>1.005195124498765</v>
       </c>
       <c r="D18">
-        <v>0.9947872609632007</v>
+        <v>1.028671397160553</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9362804977389421</v>
+        <v>1.031898131288888</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035223294424529</v>
+        <v>1.051061597316152</v>
       </c>
       <c r="J18">
-        <v>0.9972328202252594</v>
+        <v>1.032063292850571</v>
       </c>
       <c r="K18">
-        <v>1.008696583835148</v>
+        <v>1.042012920393451</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.951297895400533</v>
+        <v>1.045188076010362</v>
       </c>
       <c r="N18">
-        <v>1.003295322837719</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014709715750069</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045225170045756</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040845020616751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.969312978828429</v>
+        <v>1.005232403208418</v>
       </c>
       <c r="D19">
-        <v>0.9950486614004824</v>
+        <v>1.028578667697648</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9368979362906728</v>
+        <v>1.031474639818938</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035320582666266</v>
+        <v>1.050973459168171</v>
       </c>
       <c r="J19">
-        <v>0.9974458783235538</v>
+        <v>1.031965703196072</v>
       </c>
       <c r="K19">
-        <v>1.008888406622087</v>
+        <v>1.041859679705589</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9518317121117275</v>
+        <v>1.044709577302134</v>
       </c>
       <c r="N19">
-        <v>1.003365440621365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014657046507555</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044522729585187</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040743032738531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9676511460798181</v>
+        <v>1.003685766628932</v>
       </c>
       <c r="D20">
-        <v>0.993874921088566</v>
+        <v>1.027343533649905</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9341231264805817</v>
+        <v>1.029576228703693</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034882438367933</v>
+        <v>1.050407643228647</v>
       </c>
       <c r="J20">
-        <v>0.9964886458311648</v>
+        <v>1.031075343802505</v>
       </c>
       <c r="K20">
-        <v>1.00802633450718</v>
+        <v>1.04092203632184</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9494324706912227</v>
+        <v>1.043118215542817</v>
       </c>
       <c r="N20">
-        <v>1.003050417453532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014327891516893</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042738240127466</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040083986606091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9621256855124501</v>
+        <v>0.9998691774606244</v>
       </c>
       <c r="D21">
-        <v>0.9899739213254061</v>
+        <v>1.024804811528566</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9248536973215261</v>
+        <v>1.026764038980797</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033403235206014</v>
+        <v>1.049421716348929</v>
       </c>
       <c r="J21">
-        <v>0.9932969341075047</v>
+        <v>1.029372369329307</v>
       </c>
       <c r="K21">
-        <v>1.005147763403477</v>
+        <v>1.039331009531356</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9414137612933132</v>
+        <v>1.041255500138559</v>
       </c>
       <c r="N21">
-        <v>1.002000104301231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013761351255382</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041223351218132</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038962286575628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9585520152176569</v>
+        <v>0.9974406046101411</v>
       </c>
       <c r="D22">
-        <v>0.987452646009385</v>
+        <v>1.023199981225388</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9188201919699442</v>
+        <v>1.025020979304491</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032429637266303</v>
+        <v>1.048790623064937</v>
       </c>
       <c r="J22">
-        <v>0.9912257015077064</v>
+        <v>1.028293544483007</v>
       </c>
       <c r="K22">
-        <v>1.003276834828633</v>
+        <v>1.038325438826192</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9361917206712264</v>
+        <v>1.040112544270469</v>
       </c>
       <c r="N22">
-        <v>1.001318577447561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013403422681963</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040318778621358</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038237878215134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9604563031341647</v>
+        <v>0.9987247058306854</v>
       </c>
       <c r="D23">
-        <v>0.9887959491341574</v>
+        <v>1.024042930777111</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9220391821498134</v>
+        <v>1.025939928962032</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032949997797498</v>
+        <v>1.049121503250592</v>
       </c>
       <c r="J23">
-        <v>0.9923300455447666</v>
+        <v>1.028860358496654</v>
       </c>
       <c r="K23">
-        <v>1.00427463316526</v>
+        <v>1.038850536233726</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9389780005141527</v>
+        <v>1.040713117237363</v>
       </c>
       <c r="N23">
-        <v>1.001681948719219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013590621099384</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040794091820217</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038599559452978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9677421736277685</v>
+        <v>1.003703321168294</v>
       </c>
       <c r="D24">
-        <v>0.9939392085268925</v>
+        <v>1.027329427268609</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.934275267711639</v>
+        <v>1.029523066032676</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034906522097771</v>
+        <v>1.050391367031172</v>
       </c>
       <c r="J24">
-        <v>0.996541112021771</v>
+        <v>1.031059556286461</v>
       </c>
       <c r="K24">
-        <v>1.008073601056139</v>
+        <v>1.040893023622369</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9495640349990125</v>
+        <v>1.04305082819054</v>
       </c>
       <c r="N24">
-        <v>1.003067683717025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014318561189085</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.04264423017962</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040036222335848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9757982969737155</v>
+        <v>1.009305503753178</v>
       </c>
       <c r="D25">
-        <v>0.9996302921405609</v>
+        <v>1.031046237787472</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9476745674647875</v>
+        <v>1.033588663472611</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036997282913844</v>
+        <v>1.051780034867427</v>
       </c>
       <c r="J25">
-        <v>1.001168527069295</v>
+        <v>1.033523708186197</v>
       </c>
       <c r="K25">
-        <v>1.012234350059706</v>
+        <v>1.043180986361473</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9611433794505337</v>
+        <v>1.045687011330797</v>
       </c>
       <c r="N25">
-        <v>1.004590640609262</v>
+        <v>1.015134586660249</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044730583213425</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041651067675337</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013619841340583</v>
+        <v>1.012807030619184</v>
       </c>
       <c r="D2">
-        <v>1.033906784694704</v>
+        <v>1.032502073079186</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.036739671770599</v>
+        <v>1.035762729740081</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052804663630099</v>
+        <v>1.052069214348736</v>
       </c>
       <c r="J2">
-        <v>1.035400678876558</v>
+        <v>1.034611318607998</v>
       </c>
       <c r="K2">
-        <v>1.04491312111847</v>
+        <v>1.043526437648119</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.047709836390091</v>
+        <v>1.046745340548774</v>
       </c>
       <c r="N2">
-        <v>1.01575418279695</v>
+        <v>1.016419468569167</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.0463315025497</v>
+        <v>1.045568174473362</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042827745474763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041855976981616</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02363502737411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016692565995562</v>
+        <v>1.015782487666733</v>
       </c>
       <c r="D3">
-        <v>1.035960107779612</v>
+        <v>1.034425868695273</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.039001232042368</v>
+        <v>1.037930957095527</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053520886022118</v>
+        <v>1.052710845052826</v>
       </c>
       <c r="J3">
-        <v>1.036738292143834</v>
+        <v>1.035851961164743</v>
       </c>
       <c r="K3">
-        <v>1.046152653118066</v>
+        <v>1.044636426657796</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.049158267690498</v>
+        <v>1.048100460462501</v>
       </c>
       <c r="N3">
-        <v>1.016197237109228</v>
+        <v>1.016745697298757</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047477828741728</v>
+        <v>1.046640652772742</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043701540796736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042637901824769</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023831444595383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018649041617937</v>
+        <v>1.017677516461653</v>
       </c>
       <c r="D4">
-        <v>1.037271015313511</v>
+        <v>1.035654639962617</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.040447754736377</v>
+        <v>1.039318378972902</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053967693013004</v>
+        <v>1.053110271847429</v>
       </c>
       <c r="J4">
-        <v>1.037587440967441</v>
+        <v>1.036639589771551</v>
       </c>
       <c r="K4">
-        <v>1.046939496499355</v>
+        <v>1.045340977403206</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.050081340714502</v>
+        <v>1.048964340673138</v>
       </c>
       <c r="N4">
-        <v>1.016478616276135</v>
+        <v>1.016952911893357</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04820837180609</v>
+        <v>1.047324349961084</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044258789731267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043137047468033</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023953780740887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019466666714558</v>
+        <v>1.018469570453048</v>
       </c>
       <c r="D5">
-        <v>1.037821511073295</v>
+        <v>1.036170936869353</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.04105445994638</v>
+        <v>1.039900488277147</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054153575006526</v>
+        <v>1.053276397682814</v>
       </c>
       <c r="J5">
-        <v>1.037943061134488</v>
+        <v>1.03696955185182</v>
       </c>
       <c r="K5">
-        <v>1.04727021722075</v>
+        <v>1.045637401355347</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.050468582952928</v>
+        <v>1.049326925197878</v>
       </c>
       <c r="N5">
-        <v>1.016596736138662</v>
+        <v>1.017039938881807</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04851484477861</v>
+        <v>1.047611308562682</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044499761209893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043354480134953</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024005130788773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019606620546225</v>
+        <v>1.018605149925341</v>
       </c>
       <c r="D6">
-        <v>1.037918022015312</v>
+        <v>1.036261656214992</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.041159185551813</v>
+        <v>1.040001040837327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054186969979289</v>
+        <v>1.053306434113429</v>
       </c>
       <c r="J6">
-        <v>1.038005576219184</v>
+        <v>1.037027676902529</v>
       </c>
       <c r="K6">
-        <v>1.047329814329397</v>
+        <v>1.045691189167625</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.050536462969413</v>
+        <v>1.049390621010767</v>
       </c>
       <c r="N6">
-        <v>1.016617806732051</v>
+        <v>1.017055504004644</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048568566669747</v>
+        <v>1.047661719035213</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044550592590058</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043402072658603</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024014960006011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018668310626369</v>
+        <v>1.017702941046576</v>
       </c>
       <c r="D7">
-        <v>1.0372899545243</v>
+        <v>1.03567759487315</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.040464140593401</v>
+        <v>1.039338244583931</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053976653370132</v>
+        <v>1.053122293015162</v>
       </c>
       <c r="J7">
-        <v>1.037600320442426</v>
+        <v>1.036658464869011</v>
       </c>
       <c r="K7">
-        <v>1.046955369310073</v>
+        <v>1.045360814738277</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.050094701273607</v>
+        <v>1.048981138224031</v>
       </c>
       <c r="N7">
-        <v>1.016483718098584</v>
+        <v>1.016984252135179</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048218945681237</v>
+        <v>1.047337643971936</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044290003333679</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043173062772743</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023959272203136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014675250104319</v>
+        <v>1.013849617495017</v>
       </c>
       <c r="D8">
-        <v>1.034618643027348</v>
+        <v>1.033183830316496</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.037517684042397</v>
+        <v>1.036520873129594</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053058116735924</v>
+        <v>1.052307674562099</v>
       </c>
       <c r="J8">
-        <v>1.035866153089271</v>
+        <v>1.035063560071981</v>
       </c>
       <c r="K8">
-        <v>1.04534924446634</v>
+        <v>1.043932310686696</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.048212348924911</v>
+        <v>1.047227866260037</v>
       </c>
       <c r="N8">
-        <v>1.015909397570772</v>
+        <v>1.016617355009065</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046729204237485</v>
+        <v>1.045950058461588</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043158888623346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042167998589354</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023710860610899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007373874539639</v>
+        <v>1.006785318846553</v>
       </c>
       <c r="D9">
-        <v>1.029753653814711</v>
+        <v>1.028630459249238</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.032179535448339</v>
+        <v>1.031408094808042</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051299975410129</v>
+        <v>1.05072883418863</v>
       </c>
       <c r="J9">
-        <v>1.03266890271052</v>
+        <v>1.032100724484311</v>
       </c>
       <c r="K9">
-        <v>1.042381762841187</v>
+        <v>1.041275498424032</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.0447712386229</v>
+        <v>1.044011351564895</v>
       </c>
       <c r="N9">
-        <v>1.014850101375623</v>
+        <v>1.015847505257425</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044005814378084</v>
+        <v>1.04340441737922</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041057554808269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040286039707712</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023226265693263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002369425015683</v>
+        <v>1.00197312315186</v>
       </c>
       <c r="D10">
-        <v>1.026464397848232</v>
+        <v>1.0255737914588</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.028637924415775</v>
+        <v>1.028037888770162</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050069137903283</v>
+        <v>1.049634576354973</v>
       </c>
       <c r="J10">
-        <v>1.030489349113067</v>
+        <v>1.030108674489868</v>
       </c>
       <c r="K10">
-        <v>1.04037172241434</v>
+        <v>1.03949616114403</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.042508672349764</v>
+        <v>1.0419187143212</v>
       </c>
       <c r="N10">
-        <v>1.014132531048751</v>
+        <v>1.015442979625961</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042266354359066</v>
+        <v>1.041799471982997</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039653065461865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039046344099517</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022897647169518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000496935801028</v>
+        <v>1.000196282837741</v>
       </c>
       <c r="D11">
-        <v>1.025420131287933</v>
+        <v>1.024621850544563</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.027954918439239</v>
+        <v>1.027427158805197</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049749896200319</v>
+        <v>1.049374156419748</v>
       </c>
       <c r="J11">
-        <v>1.029849056265438</v>
+        <v>1.029560898493571</v>
       </c>
       <c r="K11">
-        <v>1.039878072021101</v>
+        <v>1.039093907570632</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.042368223934785</v>
+        <v>1.041849734126675</v>
       </c>
       <c r="N11">
-        <v>1.013952207030374</v>
+        <v>1.015546661212413</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042589353571923</v>
+        <v>1.042179234476517</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03933669303876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038797805640778</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022863059225873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9999008834399267</v>
+        <v>0.9996281088204764</v>
       </c>
       <c r="D12">
-        <v>1.025155326956467</v>
+        <v>1.024379844296525</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.027999005094962</v>
+        <v>1.027490210389068</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049701368373561</v>
+        <v>1.049341286938946</v>
       </c>
       <c r="J12">
-        <v>1.029709438649188</v>
+        <v>1.029448216092541</v>
       </c>
       <c r="K12">
-        <v>1.039815954243786</v>
+        <v>1.039054410132125</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.04260875362939</v>
+        <v>1.042109035359407</v>
       </c>
       <c r="N12">
-        <v>1.013928282078277</v>
+        <v>1.015632203406911</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043104540725526</v>
+        <v>1.042709402339436</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03929277424231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038769880521241</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022881072117556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000259849072417</v>
+        <v>0.9999552802226178</v>
       </c>
       <c r="D13">
-        <v>1.025489635741637</v>
+        <v>1.024678562153537</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.028629397423338</v>
+        <v>1.028094425708647</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049872259228556</v>
+        <v>1.049490996392265</v>
       </c>
       <c r="J13">
-        <v>1.029960634864193</v>
+        <v>1.029668904828978</v>
       </c>
       <c r="K13">
-        <v>1.04010181119908</v>
+        <v>1.039305255576403</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.043185652188962</v>
+        <v>1.042660177256314</v>
       </c>
       <c r="N13">
-        <v>1.014029351049749</v>
+        <v>1.015679265911098</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043836234836623</v>
+        <v>1.043420833735357</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039492404316096</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038944510677275</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022946460009799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000943681523798</v>
+        <v>1.000590756703697</v>
       </c>
       <c r="D14">
-        <v>1.025995177214037</v>
+        <v>1.025133566752887</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.029335275288352</v>
+        <v>1.028762219922757</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050090867017869</v>
+        <v>1.049678615629537</v>
       </c>
       <c r="J14">
-        <v>1.03031285289862</v>
+        <v>1.029974599104722</v>
       </c>
       <c r="K14">
-        <v>1.040459315634862</v>
+        <v>1.039612940245076</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.043740666135824</v>
+        <v>1.043177654870805</v>
       </c>
       <c r="N14">
-        <v>1.014156441744003</v>
+        <v>1.015696012859843</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044447661394045</v>
+        <v>1.044002646644698</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039746584945055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039163601916302</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023013887911899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001323840746958</v>
+        <v>1.000946270637651</v>
       </c>
       <c r="D15">
-        <v>1.026257775845493</v>
+        <v>1.025370993539494</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.029651669880057</v>
+        <v>1.029059464129419</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050197229429281</v>
+        <v>1.049769362395249</v>
       </c>
       <c r="J15">
-        <v>1.030490893700166</v>
+        <v>1.030128885607518</v>
       </c>
       <c r="K15">
-        <v>1.040631659595251</v>
+        <v>1.039760440773769</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.043966309590702</v>
+        <v>1.04338440498554</v>
       </c>
       <c r="N15">
-        <v>1.014217512957541</v>
+        <v>1.015696739062295</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044663422176105</v>
+        <v>1.044203485843239</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039874272211301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039274293460379</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023043589832551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003376025640905</v>
+        <v>1.002879587383517</v>
       </c>
       <c r="D16">
-        <v>1.027595314637467</v>
+        <v>1.026587017358134</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.031066538160879</v>
+        <v>1.030381517433044</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050705653896875</v>
+        <v>1.0502021332437</v>
       </c>
       <c r="J16">
-        <v>1.031379976662578</v>
+        <v>1.030902999059089</v>
       </c>
       <c r="K16">
-        <v>1.041448313875489</v>
+        <v>1.040456954494628</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.044861552266307</v>
+        <v>1.044187934624964</v>
       </c>
       <c r="N16">
-        <v>1.014507621757431</v>
+        <v>1.015693131973007</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04533243348397</v>
+        <v>1.04479999234137</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040454819364697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039770198426335</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023171538499423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0045945139488</v>
+        <v>1.004039123110232</v>
       </c>
       <c r="D17">
-        <v>1.028358203890245</v>
+        <v>1.027287725250331</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.031778184235925</v>
+        <v>1.031045809719403</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050978893125141</v>
+        <v>1.050436949263664</v>
       </c>
       <c r="J17">
-        <v>1.031877269575949</v>
+        <v>1.031342963797913</v>
       </c>
       <c r="K17">
-        <v>1.041886632847508</v>
+        <v>1.040833640186925</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.045251060866731</v>
+        <v>1.044530542831491</v>
       </c>
       <c r="N17">
-        <v>1.014663494960375</v>
+        <v>1.01570969732956</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045511725080646</v>
+        <v>1.044942156562916</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040767298220216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040039349006336</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023234455007221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005195124498765</v>
+        <v>1.004619727493504</v>
       </c>
       <c r="D18">
-        <v>1.028671397160553</v>
+        <v>1.027580127594448</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.031898131288888</v>
+        <v>1.031149478727382</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051061597316152</v>
+        <v>1.050506578001288</v>
       </c>
       <c r="J18">
-        <v>1.032063292850571</v>
+        <v>1.031509336028693</v>
       </c>
       <c r="K18">
-        <v>1.042012920393451</v>
+        <v>1.040939188532024</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.045188076010362</v>
+        <v>1.044451353605562</v>
       </c>
       <c r="N18">
-        <v>1.014709715750069</v>
+        <v>1.01570229593428</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045225170045756</v>
+        <v>1.044642671468558</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040845020616751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040101273439928</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023238144513351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005232403208418</v>
+        <v>1.004668841532227</v>
       </c>
       <c r="D19">
-        <v>1.028578667697648</v>
+        <v>1.027502345457337</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.031474639818938</v>
+        <v>1.030736241923004</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050973459168171</v>
+        <v>1.050426886389828</v>
       </c>
       <c r="J19">
-        <v>1.031965703196072</v>
+        <v>1.031423015537105</v>
       </c>
       <c r="K19">
-        <v>1.041859679705589</v>
+        <v>1.040800566491421</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.044709577302134</v>
+        <v>1.043982895714152</v>
       </c>
       <c r="N19">
-        <v>1.014657046507555</v>
+        <v>1.01565423867541</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044522729585187</v>
+        <v>1.043947983654128</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040743032738531</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040010246498092</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023188290208648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003685766628932</v>
+        <v>1.003219884794893</v>
       </c>
       <c r="D20">
-        <v>1.027343533649905</v>
+        <v>1.026378982613404</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.029576228703693</v>
+        <v>1.028920118353349</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050407643228647</v>
+        <v>1.049927700849673</v>
       </c>
       <c r="J20">
-        <v>1.031075343802505</v>
+        <v>1.03062724706941</v>
       </c>
       <c r="K20">
-        <v>1.04092203632184</v>
+        <v>1.039973323765635</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.043118215542817</v>
+        <v>1.04247281477601</v>
       </c>
       <c r="N20">
-        <v>1.014327891516893</v>
+        <v>1.015482645109597</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042738240127466</v>
+        <v>1.042227475184522</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040083986606091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039429647090115</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022988626875416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9998691774606244</v>
+        <v>0.9996450205727416</v>
       </c>
       <c r="D21">
-        <v>1.024804811528566</v>
+        <v>1.024084929861004</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.026764038980797</v>
+        <v>1.026295531729863</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049421716348929</v>
+        <v>1.049094415297254</v>
       </c>
       <c r="J21">
-        <v>1.029372369329307</v>
+        <v>1.029157590831276</v>
       </c>
       <c r="K21">
-        <v>1.039331009531356</v>
+        <v>1.038623934611953</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.041255500138559</v>
+        <v>1.040795283808513</v>
       </c>
       <c r="N21">
-        <v>1.013761351255382</v>
+        <v>1.015508859581188</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041223351218132</v>
+        <v>1.040859121122725</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038962286575628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038479118289702</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022734310642055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9974406046101411</v>
+        <v>0.997367611504097</v>
       </c>
       <c r="D22">
-        <v>1.023199981225388</v>
+        <v>1.022633041793202</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.025020979304491</v>
+        <v>1.024669892348237</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048790623064937</v>
+        <v>1.048558420917302</v>
       </c>
       <c r="J22">
-        <v>1.028293544483007</v>
+        <v>1.028223779025913</v>
       </c>
       <c r="K22">
-        <v>1.038325438826192</v>
+        <v>1.037769083498</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.040112544270469</v>
+        <v>1.039767979559616</v>
       </c>
       <c r="N22">
-        <v>1.013403422681963</v>
+        <v>1.015518561786988</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040318778621358</v>
+        <v>1.040046078634892</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038237878215134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037859972215849</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022571970071195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9987247058306854</v>
+        <v>0.9985612178052785</v>
       </c>
       <c r="D23">
-        <v>1.024042930777111</v>
+        <v>1.023387757538626</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.025939928962032</v>
+        <v>1.025520487408729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049121503250592</v>
+        <v>1.048833672955444</v>
       </c>
       <c r="J23">
-        <v>1.028860358496654</v>
+        <v>1.028703892411989</v>
       </c>
       <c r="K23">
-        <v>1.038850536233726</v>
+        <v>1.038207288362427</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.040713117237363</v>
+        <v>1.040301271339523</v>
       </c>
       <c r="N23">
-        <v>1.013590621099384</v>
+        <v>1.015469702890144</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040794091820217</v>
+        <v>1.040468143464814</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038599559452978</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03815927533025</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022653457991773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003703321168294</v>
+        <v>1.003238600225632</v>
       </c>
       <c r="D24">
-        <v>1.027329427268609</v>
+        <v>1.026366188616261</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.029523066032676</v>
+        <v>1.028867869960299</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050391367031172</v>
+        <v>1.049912203178627</v>
       </c>
       <c r="J24">
-        <v>1.031059556286461</v>
+        <v>1.030612550331039</v>
       </c>
       <c r="K24">
-        <v>1.040893023622369</v>
+        <v>1.039945582196469</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.04305082819054</v>
+        <v>1.04240631451065</v>
       </c>
       <c r="N24">
-        <v>1.014318561189085</v>
+        <v>1.01547199728789</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04264423017962</v>
+        <v>1.042134142147681</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040036222335848</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039380108727856</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02297780163068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009305503753178</v>
+        <v>1.008645415383188</v>
       </c>
       <c r="D25">
-        <v>1.031046237787472</v>
+        <v>1.029834785599211</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.033588663472611</v>
+        <v>1.032752529384155</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051780034867427</v>
+        <v>1.051157206845478</v>
       </c>
       <c r="J25">
-        <v>1.033523708186197</v>
+        <v>1.03288528909396</v>
       </c>
       <c r="K25">
-        <v>1.043180986361473</v>
+        <v>1.041986959006743</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.045687011330797</v>
+        <v>1.044862823404794</v>
       </c>
       <c r="N25">
-        <v>1.015134586660249</v>
+        <v>1.016022083698765</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044730583213425</v>
+        <v>1.044078297238471</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041651067675337</v>
+        <v>1.040820304889511</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023359559616826</v>
       </c>
     </row>
   </sheetData>
